--- a/_docs/EnemyImbuePresets_MenuMock.xlsx
+++ b/_docs/EnemyImbuePresets_MenuMock.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Preset Impact" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Menu Layout'!$A$1:$H$96</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Preset Impact'!$A$1:$G$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Menu Layout'!$A$1:$H$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Preset Impact'!$A$1:$G$87</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -516,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -627,7 +627,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Enemy Imbue Presets</t>
+          <t>Factioned Imbuement</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Lore Friendly | Frontier Pressure | Warfront Arcana | High Magic Conflict | Randomized Eligibility</t>
+          <t>Default | Core Factions | Most Factions | All Factions | Random</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>Lore Friendly</t>
+          <t>Default</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Enemy Imbue Presets</t>
+          <t>Factioned Imbuement</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -684,12 +684,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Lore Friendly (Casters Only) | Frontier Pressure (Mostly Open) | Warfront Arcana (Open) | High Magic Conflict (Open) | Randomized Eligibility</t>
+          <t>Mage | Mage Bow | Mage Melee | Mage Bow Melee | Random</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>Lore Friendly (Casters Only)</t>
+          <t>Mage</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>Batch-writes caster/non-caster eligibility toggles</t>
+          <t>Batch-writes enemy archetype eligibility toggles</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Enemy Imbue Presets</t>
+          <t>Factioned Imbuement</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -726,12 +726,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Lore Friendly | Frontier Doctrines | Warfront Expansion | High Magic Arsenal | Randomized</t>
+          <t>Default | Two-Slot | Tri-Slot | Tri-Slot+ | Random</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>Lore Friendly</t>
+          <t>Default</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Enemy Imbue Presets</t>
+          <t>Factioned Imbuement</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Lore Friendly | Frontier Pressure | Warfront Arcana | High Magic Conflict | Chaotic Storm</t>
+          <t>Default | Increased | High | Very High | Maximum</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>Lore Friendly</t>
+          <t>Default</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Enemy Imbue Presets</t>
+          <t>Factioned Imbuement</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Lore Friendly | Frontier Pressure | Warfront Arcana | High Magic Conflict | Chaotic Storm</t>
+          <t>Default | Increased | High | Very High | Maximum</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>Lore Friendly</t>
+          <t>Default</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Caster Enemies Eligible</t>
+          <t>Mage Eligible</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>Controls caster-type enemy eligibility</t>
+          <t>Controls pure mage archetype eligibility</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Non-Caster Enemies Eligible</t>
+          <t>Mage Bow Eligible</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -909,182 +909,182 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>Controls non-caster enemy eligibility</t>
+          <t>Controls mage-bow hybrid eligibility</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>Combat Practice (Mixed Enemies)</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>Combat Enabled</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Enemy Type Eligibility</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Mage Melee Eligible</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>Toggle</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>On/Off</t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>Profile</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="inlineStr">
-        <is>
-          <t>Source of truth for faction eligibility</t>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>Enemy Type Profile</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Controls mage-melee hybrid eligibility</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Combat Practice (Mixed Enemies)</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>Combat Imbue 1</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Enemy Type Eligibility</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Bow Eligible</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Toggle</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>On/Off</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>Enemy Type Profile</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Controls non-caster bow archetype eligibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Enemy Type Eligibility</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Melee Eligible</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Toggle</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>On/Off</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>Enemy Type Profile</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Controls non-caster melee archetype eligibility</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Enemy Type Eligibility</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Uncertain Enemy Type Fallback</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>Dropdown</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>None (No Imbue) + spell ids</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>Imbue</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="inlineStr">
-        <is>
-          <t>Source of truth for slot spell</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Combat Practice (Mixed Enemies)</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Combat Chance 1</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>Slider</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>0..100 in 5% steps</t>
-        </is>
-      </c>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>Chance</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t>Source of truth for slot chance</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Combat Practice (Mixed Enemies)</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>Combat Strength 1</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>Slider</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>0..100 in 5% steps</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>Strength</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="inlineStr">
-        <is>
-          <t>Source of truth for slot strength</t>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Treat As Melee | Skip Enemy</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Treat As Melee</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Controls behavior when enemy-type signals are uncertain</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>100</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1094,17 +1094,17 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>Combat Imbue 2</t>
+          <t>Combat Enabled</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Toggle</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>None (No Imbue) + spell ids</t>
+          <t>On/Off</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
@@ -1114,19 +1114,19 @@
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Profile</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>Source of truth for slot spell</t>
+          <t>Source of truth for faction eligibility</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>101</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
@@ -1136,17 +1136,17 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>Combat Chance 2</t>
+          <t>Combat Imbue 1</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>0..100 in 5% steps</t>
+          <t>None (No Imbue) + spell ids</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
@@ -1156,19 +1156,19 @@
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>Source of truth for slot chance</t>
+          <t>Source of truth for slot spell</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>102</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>Combat Strength 2</t>
+          <t>Combat Chance 1</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -1198,19 +1198,19 @@
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>Strength</t>
+          <t>Chance</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>Source of truth for slot strength</t>
+          <t>Source of truth for slot chance</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>103</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
@@ -1220,17 +1220,17 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>Combat Imbue 3</t>
+          <t>Combat Strength 1</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Slider</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>None (No Imbue) + spell ids</t>
+          <t>0..100 in 5% steps</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
@@ -1240,19 +1240,19 @@
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Strength</t>
         </is>
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t>Source of truth for slot spell</t>
+          <t>Source of truth for slot strength</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>104</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1262,17 +1262,17 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>Combat Chance 3</t>
+          <t>Combat Imbue 2</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>0..100 in 5% steps</t>
+          <t>None (No Imbue) + spell ids</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
@@ -1282,220 +1282,220 @@
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>Source of truth for slot chance</t>
+          <t>Source of truth for slot spell</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Combat Practice (Mixed Enemies)</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Combat Chance 2</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>Slider</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>0..100 in 5% steps</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>Source of truth for slot chance</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Combat Practice (Mixed Enemies)</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Combat Strength 2</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Slider</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>0..100 in 5% steps</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>Strength</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>Source of truth for slot strength</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Combat Practice (Mixed Enemies)</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Combat Imbue 3</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Dropdown</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>None (No Imbue) + spell ids</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>Imbue</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>Source of truth for slot spell</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Combat Practice (Mixed Enemies)</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>Combat Chance 3</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Slider</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>0..100 in 5% steps</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>Source of truth for slot chance</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
           <t>109</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>Combat Practice (Mixed Enemies)</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>Combat Strength 3</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D23" s="3" t="inlineStr">
         <is>
           <t>Slider</t>
         </is>
       </c>
-      <c r="E19" s="3" t="inlineStr">
+      <c r="E23" s="3" t="inlineStr">
         <is>
           <t>0..100 in 5% steps</t>
         </is>
       </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
         <is>
           <t>Strength</t>
         </is>
       </c>
-      <c r="H19" s="3" t="inlineStr">
-        <is>
-          <t>Source of truth for slot strength</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>Outlaws (T0)</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>Outlaws Enabled</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>Toggle</t>
-        </is>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>On/Off</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G20" s="4" t="inlineStr">
-        <is>
-          <t>Profile</t>
-        </is>
-      </c>
-      <c r="H20" s="4" t="inlineStr">
-        <is>
-          <t>Source of truth for faction eligibility</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>Outlaws (T0)</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>Outlaws Imbue 1</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="inlineStr">
-        <is>
-          <t>Dropdown</t>
-        </is>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>None (No Imbue) + spell ids</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G21" s="4" t="inlineStr">
-        <is>
-          <t>Imbue</t>
-        </is>
-      </c>
-      <c r="H21" s="4" t="inlineStr">
-        <is>
-          <t>Source of truth for slot spell</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>Outlaws (T0)</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>Outlaws Chance 1</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="inlineStr">
-        <is>
-          <t>Slider</t>
-        </is>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>0..100 in 5% steps</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G22" s="4" t="inlineStr">
-        <is>
-          <t>Chance</t>
-        </is>
-      </c>
-      <c r="H22" s="4" t="inlineStr">
-        <is>
-          <t>Source of truth for slot chance</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>Outlaws (T0)</t>
-        </is>
-      </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>Outlaws Strength 1</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>Slider</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>0..100 in 5% steps</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G23" s="4" t="inlineStr">
-        <is>
-          <t>Strength</t>
-        </is>
-      </c>
-      <c r="H23" s="4" t="inlineStr">
+      <c r="H23" s="3" t="inlineStr">
         <is>
           <t>Source of truth for slot strength</t>
         </is>
@@ -1504,7 +1504,7 @@
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
@@ -1514,17 +1514,17 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Outlaws Imbue 2</t>
+          <t>Outlaws Enabled</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Toggle</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>None (No Imbue) + spell ids</t>
+          <t>On/Off</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
@@ -1534,19 +1534,19 @@
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Profile</t>
         </is>
       </c>
       <c r="H24" s="4" t="inlineStr">
         <is>
-          <t>Source of truth for slot spell</t>
+          <t>Source of truth for faction eligibility</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>111</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
@@ -1556,17 +1556,17 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>Outlaws Chance 2</t>
+          <t>Outlaws Imbue 1</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>0..100 in 5% steps</t>
+          <t>None (No Imbue) + spell ids</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
@@ -1576,19 +1576,19 @@
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="H25" s="4" t="inlineStr">
         <is>
-          <t>Source of truth for slot chance</t>
+          <t>Source of truth for slot spell</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>112</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>Outlaws Strength 2</t>
+          <t>Outlaws Chance 1</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
@@ -1618,19 +1618,19 @@
       </c>
       <c r="G26" s="4" t="inlineStr">
         <is>
-          <t>Strength</t>
+          <t>Chance</t>
         </is>
       </c>
       <c r="H26" s="4" t="inlineStr">
         <is>
-          <t>Source of truth for slot strength</t>
+          <t>Source of truth for slot chance</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>113</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
@@ -1640,17 +1640,17 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>Outlaws Imbue 3</t>
+          <t>Outlaws Strength 1</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Slider</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>None (No Imbue) + spell ids</t>
+          <t>0..100 in 5% steps</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
@@ -1660,19 +1660,19 @@
       </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Strength</t>
         </is>
       </c>
       <c r="H27" s="4" t="inlineStr">
         <is>
-          <t>Source of truth for slot spell</t>
+          <t>Source of truth for slot strength</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>114</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Outlaws Chance 3</t>
+          <t>Outlaws Imbue 2</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>0..100 in 5% steps</t>
+          <t>None (No Imbue) + spell ids</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
@@ -1702,220 +1702,220 @@
       </c>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="H28" s="4" t="inlineStr">
         <is>
-          <t>Source of truth for slot chance</t>
+          <t>Source of truth for slot spell</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>Outlaws (T0)</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>Outlaws Chance 2</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>Slider</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>0..100 in 5% steps</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="H29" s="4" t="inlineStr">
+        <is>
+          <t>Source of truth for slot chance</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>Outlaws (T0)</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>Outlaws Strength 2</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>Slider</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>0..100 in 5% steps</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G30" s="4" t="inlineStr">
+        <is>
+          <t>Strength</t>
+        </is>
+      </c>
+      <c r="H30" s="4" t="inlineStr">
+        <is>
+          <t>Source of truth for slot strength</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>Outlaws (T0)</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Outlaws Imbue 3</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Dropdown</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>None (No Imbue) + spell ids</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G31" s="4" t="inlineStr">
+        <is>
+          <t>Imbue</t>
+        </is>
+      </c>
+      <c r="H31" s="4" t="inlineStr">
+        <is>
+          <t>Source of truth for slot spell</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Outlaws (T0)</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Outlaws Chance 3</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>Slider</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>0..100 in 5% steps</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G32" s="4" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="H32" s="4" t="inlineStr">
+        <is>
+          <t>Source of truth for slot chance</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
           <t>119</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t>Outlaws (T0)</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t>Outlaws Strength 3</t>
         </is>
       </c>
-      <c r="D29" s="4" t="inlineStr">
+      <c r="D33" s="4" t="inlineStr">
         <is>
           <t>Slider</t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E33" s="4" t="inlineStr">
         <is>
           <t>0..100 in 5% steps</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="F33" s="4" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G33" s="4" t="inlineStr">
         <is>
           <t>Strength</t>
         </is>
       </c>
-      <c r="H29" s="4" t="inlineStr">
-        <is>
-          <t>Source of truth for slot strength</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="B30" s="5" t="inlineStr">
-        <is>
-          <t>Wildfolk (T1)</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>Wildfolk Enabled</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>Toggle</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>On/Off</t>
-        </is>
-      </c>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr">
-        <is>
-          <t>Profile</t>
-        </is>
-      </c>
-      <c r="H30" s="5" t="inlineStr">
-        <is>
-          <t>Source of truth for faction eligibility</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="B31" s="5" t="inlineStr">
-        <is>
-          <t>Wildfolk (T1)</t>
-        </is>
-      </c>
-      <c r="C31" s="5" t="inlineStr">
-        <is>
-          <t>Wildfolk Imbue 1</t>
-        </is>
-      </c>
-      <c r="D31" s="5" t="inlineStr">
-        <is>
-          <t>Dropdown</t>
-        </is>
-      </c>
-      <c r="E31" s="5" t="inlineStr">
-        <is>
-          <t>None (No Imbue) + spell ids</t>
-        </is>
-      </c>
-      <c r="F31" s="5" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G31" s="5" t="inlineStr">
-        <is>
-          <t>Imbue</t>
-        </is>
-      </c>
-      <c r="H31" s="5" t="inlineStr">
-        <is>
-          <t>Source of truth for slot spell</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="inlineStr">
-        <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="B32" s="5" t="inlineStr">
-        <is>
-          <t>Wildfolk (T1)</t>
-        </is>
-      </c>
-      <c r="C32" s="5" t="inlineStr">
-        <is>
-          <t>Wildfolk Chance 1</t>
-        </is>
-      </c>
-      <c r="D32" s="5" t="inlineStr">
-        <is>
-          <t>Slider</t>
-        </is>
-      </c>
-      <c r="E32" s="5" t="inlineStr">
-        <is>
-          <t>0..100 in 5% steps</t>
-        </is>
-      </c>
-      <c r="F32" s="5" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G32" s="5" t="inlineStr">
-        <is>
-          <t>Chance</t>
-        </is>
-      </c>
-      <c r="H32" s="5" t="inlineStr">
-        <is>
-          <t>Source of truth for slot chance</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="B33" s="5" t="inlineStr">
-        <is>
-          <t>Wildfolk (T1)</t>
-        </is>
-      </c>
-      <c r="C33" s="5" t="inlineStr">
-        <is>
-          <t>Wildfolk Strength 1</t>
-        </is>
-      </c>
-      <c r="D33" s="5" t="inlineStr">
-        <is>
-          <t>Slider</t>
-        </is>
-      </c>
-      <c r="E33" s="5" t="inlineStr">
-        <is>
-          <t>0..100 in 5% steps</t>
-        </is>
-      </c>
-      <c r="F33" s="5" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G33" s="5" t="inlineStr">
-        <is>
-          <t>Strength</t>
-        </is>
-      </c>
-      <c r="H33" s="5" t="inlineStr">
+      <c r="H33" s="4" t="inlineStr">
         <is>
           <t>Source of truth for slot strength</t>
         </is>
@@ -1924,7 +1924,7 @@
     <row r="34">
       <c r="A34" s="5" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B34" s="5" t="inlineStr">
@@ -1934,17 +1934,17 @@
       </c>
       <c r="C34" s="5" t="inlineStr">
         <is>
-          <t>Wildfolk Imbue 2</t>
+          <t>Wildfolk Enabled</t>
         </is>
       </c>
       <c r="D34" s="5" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Toggle</t>
         </is>
       </c>
       <c r="E34" s="5" t="inlineStr">
         <is>
-          <t>None (No Imbue) + spell ids</t>
+          <t>On/Off</t>
         </is>
       </c>
       <c r="F34" s="5" t="inlineStr">
@@ -1954,19 +1954,19 @@
       </c>
       <c r="G34" s="5" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Profile</t>
         </is>
       </c>
       <c r="H34" s="5" t="inlineStr">
         <is>
-          <t>Source of truth for slot spell</t>
+          <t>Source of truth for faction eligibility</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B35" s="5" t="inlineStr">
@@ -1976,17 +1976,17 @@
       </c>
       <c r="C35" s="5" t="inlineStr">
         <is>
-          <t>Wildfolk Chance 2</t>
+          <t>Wildfolk Imbue 1</t>
         </is>
       </c>
       <c r="D35" s="5" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="E35" s="5" t="inlineStr">
         <is>
-          <t>0..100 in 5% steps</t>
+          <t>None (No Imbue) + spell ids</t>
         </is>
       </c>
       <c r="F35" s="5" t="inlineStr">
@@ -1996,19 +1996,19 @@
       </c>
       <c r="G35" s="5" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="H35" s="5" t="inlineStr">
         <is>
-          <t>Source of truth for slot chance</t>
+          <t>Source of truth for slot spell</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B36" s="5" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="C36" s="5" t="inlineStr">
         <is>
-          <t>Wildfolk Strength 2</t>
+          <t>Wildfolk Chance 1</t>
         </is>
       </c>
       <c r="D36" s="5" t="inlineStr">
@@ -2038,19 +2038,19 @@
       </c>
       <c r="G36" s="5" t="inlineStr">
         <is>
-          <t>Strength</t>
+          <t>Chance</t>
         </is>
       </c>
       <c r="H36" s="5" t="inlineStr">
         <is>
-          <t>Source of truth for slot strength</t>
+          <t>Source of truth for slot chance</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B37" s="5" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="C37" s="5" t="inlineStr">
         <is>
-          <t>Wildfolk Imbue 3</t>
+          <t>Wildfolk Strength 1</t>
         </is>
       </c>
       <c r="D37" s="5" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Slider</t>
         </is>
       </c>
       <c r="E37" s="5" t="inlineStr">
         <is>
-          <t>None (No Imbue) + spell ids</t>
+          <t>0..100 in 5% steps</t>
         </is>
       </c>
       <c r="F37" s="5" t="inlineStr">
@@ -2080,19 +2080,19 @@
       </c>
       <c r="G37" s="5" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Strength</t>
         </is>
       </c>
       <c r="H37" s="5" t="inlineStr">
         <is>
-          <t>Source of truth for slot spell</t>
+          <t>Source of truth for slot strength</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B38" s="5" t="inlineStr">
@@ -2102,17 +2102,17 @@
       </c>
       <c r="C38" s="5" t="inlineStr">
         <is>
-          <t>Wildfolk Chance 3</t>
+          <t>Wildfolk Imbue 2</t>
         </is>
       </c>
       <c r="D38" s="5" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="E38" s="5" t="inlineStr">
         <is>
-          <t>0..100 in 5% steps</t>
+          <t>None (No Imbue) + spell ids</t>
         </is>
       </c>
       <c r="F38" s="5" t="inlineStr">
@@ -2122,220 +2122,220 @@
       </c>
       <c r="G38" s="5" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="H38" s="5" t="inlineStr">
         <is>
-          <t>Source of truth for slot chance</t>
+          <t>Source of truth for slot spell</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="inlineStr">
         <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>Wildfolk (T1)</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>Wildfolk Chance 2</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>Slider</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="inlineStr">
+        <is>
+          <t>0..100 in 5% steps</t>
+        </is>
+      </c>
+      <c r="F39" s="5" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G39" s="5" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="H39" s="5" t="inlineStr">
+        <is>
+          <t>Source of truth for slot chance</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>Wildfolk (T1)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>Wildfolk Strength 2</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="inlineStr">
+        <is>
+          <t>Slider</t>
+        </is>
+      </c>
+      <c r="E40" s="5" t="inlineStr">
+        <is>
+          <t>0..100 in 5% steps</t>
+        </is>
+      </c>
+      <c r="F40" s="5" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G40" s="5" t="inlineStr">
+        <is>
+          <t>Strength</t>
+        </is>
+      </c>
+      <c r="H40" s="5" t="inlineStr">
+        <is>
+          <t>Source of truth for slot strength</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>Wildfolk (T1)</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>Wildfolk Imbue 3</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="inlineStr">
+        <is>
+          <t>Dropdown</t>
+        </is>
+      </c>
+      <c r="E41" s="5" t="inlineStr">
+        <is>
+          <t>None (No Imbue) + spell ids</t>
+        </is>
+      </c>
+      <c r="F41" s="5" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G41" s="5" t="inlineStr">
+        <is>
+          <t>Imbue</t>
+        </is>
+      </c>
+      <c r="H41" s="5" t="inlineStr">
+        <is>
+          <t>Source of truth for slot spell</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>Wildfolk (T1)</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>Wildfolk Chance 3</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="inlineStr">
+        <is>
+          <t>Slider</t>
+        </is>
+      </c>
+      <c r="E42" s="5" t="inlineStr">
+        <is>
+          <t>0..100 in 5% steps</t>
+        </is>
+      </c>
+      <c r="F42" s="5" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G42" s="5" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="H42" s="5" t="inlineStr">
+        <is>
+          <t>Source of truth for slot chance</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
           <t>129</t>
         </is>
       </c>
-      <c r="B39" s="5" t="inlineStr">
+      <c r="B43" s="5" t="inlineStr">
         <is>
           <t>Wildfolk (T1)</t>
         </is>
       </c>
-      <c r="C39" s="5" t="inlineStr">
+      <c r="C43" s="5" t="inlineStr">
         <is>
           <t>Wildfolk Strength 3</t>
         </is>
       </c>
-      <c r="D39" s="5" t="inlineStr">
+      <c r="D43" s="5" t="inlineStr">
         <is>
           <t>Slider</t>
         </is>
       </c>
-      <c r="E39" s="5" t="inlineStr">
+      <c r="E43" s="5" t="inlineStr">
         <is>
           <t>0..100 in 5% steps</t>
         </is>
       </c>
-      <c r="F39" s="5" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G39" s="5" t="inlineStr">
+      <c r="F43" s="5" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G43" s="5" t="inlineStr">
         <is>
           <t>Strength</t>
         </is>
       </c>
-      <c r="H39" s="5" t="inlineStr">
-        <is>
-          <t>Source of truth for slot strength</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="6" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="B40" s="6" t="inlineStr">
-        <is>
-          <t>Eraden Kingdom (T2)</t>
-        </is>
-      </c>
-      <c r="C40" s="6" t="inlineStr">
-        <is>
-          <t>Eraden Enabled</t>
-        </is>
-      </c>
-      <c r="D40" s="6" t="inlineStr">
-        <is>
-          <t>Toggle</t>
-        </is>
-      </c>
-      <c r="E40" s="6" t="inlineStr">
-        <is>
-          <t>On/Off</t>
-        </is>
-      </c>
-      <c r="F40" s="6" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G40" s="6" t="inlineStr">
-        <is>
-          <t>Profile</t>
-        </is>
-      </c>
-      <c r="H40" s="6" t="inlineStr">
-        <is>
-          <t>Source of truth for faction eligibility</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="B41" s="6" t="inlineStr">
-        <is>
-          <t>Eraden Kingdom (T2)</t>
-        </is>
-      </c>
-      <c r="C41" s="6" t="inlineStr">
-        <is>
-          <t>Eraden Imbue 1</t>
-        </is>
-      </c>
-      <c r="D41" s="6" t="inlineStr">
-        <is>
-          <t>Dropdown</t>
-        </is>
-      </c>
-      <c r="E41" s="6" t="inlineStr">
-        <is>
-          <t>None (No Imbue) + spell ids</t>
-        </is>
-      </c>
-      <c r="F41" s="6" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G41" s="6" t="inlineStr">
-        <is>
-          <t>Imbue</t>
-        </is>
-      </c>
-      <c r="H41" s="6" t="inlineStr">
-        <is>
-          <t>Source of truth for slot spell</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="6" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="B42" s="6" t="inlineStr">
-        <is>
-          <t>Eraden Kingdom (T2)</t>
-        </is>
-      </c>
-      <c r="C42" s="6" t="inlineStr">
-        <is>
-          <t>Eraden Chance 1</t>
-        </is>
-      </c>
-      <c r="D42" s="6" t="inlineStr">
-        <is>
-          <t>Slider</t>
-        </is>
-      </c>
-      <c r="E42" s="6" t="inlineStr">
-        <is>
-          <t>0..100 in 5% steps</t>
-        </is>
-      </c>
-      <c r="F42" s="6" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G42" s="6" t="inlineStr">
-        <is>
-          <t>Chance</t>
-        </is>
-      </c>
-      <c r="H42" s="6" t="inlineStr">
-        <is>
-          <t>Source of truth for slot chance</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="6" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="B43" s="6" t="inlineStr">
-        <is>
-          <t>Eraden Kingdom (T2)</t>
-        </is>
-      </c>
-      <c r="C43" s="6" t="inlineStr">
-        <is>
-          <t>Eraden Strength 1</t>
-        </is>
-      </c>
-      <c r="D43" s="6" t="inlineStr">
-        <is>
-          <t>Slider</t>
-        </is>
-      </c>
-      <c r="E43" s="6" t="inlineStr">
-        <is>
-          <t>0..100 in 5% steps</t>
-        </is>
-      </c>
-      <c r="F43" s="6" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G43" s="6" t="inlineStr">
-        <is>
-          <t>Strength</t>
-        </is>
-      </c>
-      <c r="H43" s="6" t="inlineStr">
+      <c r="H43" s="5" t="inlineStr">
         <is>
           <t>Source of truth for slot strength</t>
         </is>
@@ -2344,7 +2344,7 @@
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B44" s="6" t="inlineStr">
@@ -2354,17 +2354,17 @@
       </c>
       <c r="C44" s="6" t="inlineStr">
         <is>
-          <t>Eraden Imbue 2</t>
+          <t>Eraden Enabled</t>
         </is>
       </c>
       <c r="D44" s="6" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Toggle</t>
         </is>
       </c>
       <c r="E44" s="6" t="inlineStr">
         <is>
-          <t>None (No Imbue) + spell ids</t>
+          <t>On/Off</t>
         </is>
       </c>
       <c r="F44" s="6" t="inlineStr">
@@ -2374,19 +2374,19 @@
       </c>
       <c r="G44" s="6" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Profile</t>
         </is>
       </c>
       <c r="H44" s="6" t="inlineStr">
         <is>
-          <t>Source of truth for slot spell</t>
+          <t>Source of truth for faction eligibility</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B45" s="6" t="inlineStr">
@@ -2396,17 +2396,17 @@
       </c>
       <c r="C45" s="6" t="inlineStr">
         <is>
-          <t>Eraden Chance 2</t>
+          <t>Eraden Imbue 1</t>
         </is>
       </c>
       <c r="D45" s="6" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="E45" s="6" t="inlineStr">
         <is>
-          <t>0..100 in 5% steps</t>
+          <t>None (No Imbue) + spell ids</t>
         </is>
       </c>
       <c r="F45" s="6" t="inlineStr">
@@ -2416,19 +2416,19 @@
       </c>
       <c r="G45" s="6" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="H45" s="6" t="inlineStr">
         <is>
-          <t>Source of truth for slot chance</t>
+          <t>Source of truth for slot spell</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>132</t>
         </is>
       </c>
       <c r="B46" s="6" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="C46" s="6" t="inlineStr">
         <is>
-          <t>Eraden Strength 2</t>
+          <t>Eraden Chance 1</t>
         </is>
       </c>
       <c r="D46" s="6" t="inlineStr">
@@ -2458,19 +2458,19 @@
       </c>
       <c r="G46" s="6" t="inlineStr">
         <is>
-          <t>Strength</t>
+          <t>Chance</t>
         </is>
       </c>
       <c r="H46" s="6" t="inlineStr">
         <is>
-          <t>Source of truth for slot strength</t>
+          <t>Source of truth for slot chance</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B47" s="6" t="inlineStr">
@@ -2480,17 +2480,17 @@
       </c>
       <c r="C47" s="6" t="inlineStr">
         <is>
-          <t>Eraden Imbue 3</t>
+          <t>Eraden Strength 1</t>
         </is>
       </c>
       <c r="D47" s="6" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Slider</t>
         </is>
       </c>
       <c r="E47" s="6" t="inlineStr">
         <is>
-          <t>None (No Imbue) + spell ids</t>
+          <t>0..100 in 5% steps</t>
         </is>
       </c>
       <c r="F47" s="6" t="inlineStr">
@@ -2500,19 +2500,19 @@
       </c>
       <c r="G47" s="6" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Strength</t>
         </is>
       </c>
       <c r="H47" s="6" t="inlineStr">
         <is>
-          <t>Source of truth for slot spell</t>
+          <t>Source of truth for slot strength</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B48" s="6" t="inlineStr">
@@ -2522,17 +2522,17 @@
       </c>
       <c r="C48" s="6" t="inlineStr">
         <is>
-          <t>Eraden Chance 3</t>
+          <t>Eraden Imbue 2</t>
         </is>
       </c>
       <c r="D48" s="6" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="E48" s="6" t="inlineStr">
         <is>
-          <t>0..100 in 5% steps</t>
+          <t>None (No Imbue) + spell ids</t>
         </is>
       </c>
       <c r="F48" s="6" t="inlineStr">
@@ -2542,220 +2542,220 @@
       </c>
       <c r="G48" s="6" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="H48" s="6" t="inlineStr">
         <is>
-          <t>Source of truth for slot chance</t>
+          <t>Source of truth for slot spell</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6" t="inlineStr">
         <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="B49" s="6" t="inlineStr">
+        <is>
+          <t>Eraden Kingdom (T2)</t>
+        </is>
+      </c>
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>Eraden Chance 2</t>
+        </is>
+      </c>
+      <c r="D49" s="6" t="inlineStr">
+        <is>
+          <t>Slider</t>
+        </is>
+      </c>
+      <c r="E49" s="6" t="inlineStr">
+        <is>
+          <t>0..100 in 5% steps</t>
+        </is>
+      </c>
+      <c r="F49" s="6" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G49" s="6" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="H49" s="6" t="inlineStr">
+        <is>
+          <t>Source of truth for slot chance</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="B50" s="6" t="inlineStr">
+        <is>
+          <t>Eraden Kingdom (T2)</t>
+        </is>
+      </c>
+      <c r="C50" s="6" t="inlineStr">
+        <is>
+          <t>Eraden Strength 2</t>
+        </is>
+      </c>
+      <c r="D50" s="6" t="inlineStr">
+        <is>
+          <t>Slider</t>
+        </is>
+      </c>
+      <c r="E50" s="6" t="inlineStr">
+        <is>
+          <t>0..100 in 5% steps</t>
+        </is>
+      </c>
+      <c r="F50" s="6" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G50" s="6" t="inlineStr">
+        <is>
+          <t>Strength</t>
+        </is>
+      </c>
+      <c r="H50" s="6" t="inlineStr">
+        <is>
+          <t>Source of truth for slot strength</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="B51" s="6" t="inlineStr">
+        <is>
+          <t>Eraden Kingdom (T2)</t>
+        </is>
+      </c>
+      <c r="C51" s="6" t="inlineStr">
+        <is>
+          <t>Eraden Imbue 3</t>
+        </is>
+      </c>
+      <c r="D51" s="6" t="inlineStr">
+        <is>
+          <t>Dropdown</t>
+        </is>
+      </c>
+      <c r="E51" s="6" t="inlineStr">
+        <is>
+          <t>None (No Imbue) + spell ids</t>
+        </is>
+      </c>
+      <c r="F51" s="6" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G51" s="6" t="inlineStr">
+        <is>
+          <t>Imbue</t>
+        </is>
+      </c>
+      <c r="H51" s="6" t="inlineStr">
+        <is>
+          <t>Source of truth for slot spell</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="B52" s="6" t="inlineStr">
+        <is>
+          <t>Eraden Kingdom (T2)</t>
+        </is>
+      </c>
+      <c r="C52" s="6" t="inlineStr">
+        <is>
+          <t>Eraden Chance 3</t>
+        </is>
+      </c>
+      <c r="D52" s="6" t="inlineStr">
+        <is>
+          <t>Slider</t>
+        </is>
+      </c>
+      <c r="E52" s="6" t="inlineStr">
+        <is>
+          <t>0..100 in 5% steps</t>
+        </is>
+      </c>
+      <c r="F52" s="6" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G52" s="6" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="H52" s="6" t="inlineStr">
+        <is>
+          <t>Source of truth for slot chance</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="inlineStr">
+        <is>
           <t>139</t>
         </is>
       </c>
-      <c r="B49" s="6" t="inlineStr">
+      <c r="B53" s="6" t="inlineStr">
         <is>
           <t>Eraden Kingdom (T2)</t>
         </is>
       </c>
-      <c r="C49" s="6" t="inlineStr">
+      <c r="C53" s="6" t="inlineStr">
         <is>
           <t>Eraden Strength 3</t>
         </is>
       </c>
-      <c r="D49" s="6" t="inlineStr">
+      <c r="D53" s="6" t="inlineStr">
         <is>
           <t>Slider</t>
         </is>
       </c>
-      <c r="E49" s="6" t="inlineStr">
+      <c r="E53" s="6" t="inlineStr">
         <is>
           <t>0..100 in 5% steps</t>
         </is>
       </c>
-      <c r="F49" s="6" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G49" s="6" t="inlineStr">
+      <c r="F53" s="6" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G53" s="6" t="inlineStr">
         <is>
           <t>Strength</t>
         </is>
       </c>
-      <c r="H49" s="6" t="inlineStr">
-        <is>
-          <t>Source of truth for slot strength</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="7" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="B50" s="7" t="inlineStr">
-        <is>
-          <t>The Eye (T3)</t>
-        </is>
-      </c>
-      <c r="C50" s="7" t="inlineStr">
-        <is>
-          <t>Eye Enabled</t>
-        </is>
-      </c>
-      <c r="D50" s="7" t="inlineStr">
-        <is>
-          <t>Toggle</t>
-        </is>
-      </c>
-      <c r="E50" s="7" t="inlineStr">
-        <is>
-          <t>On/Off</t>
-        </is>
-      </c>
-      <c r="F50" s="7" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G50" s="7" t="inlineStr">
-        <is>
-          <t>Profile</t>
-        </is>
-      </c>
-      <c r="H50" s="7" t="inlineStr">
-        <is>
-          <t>Source of truth for faction eligibility</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="7" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="B51" s="7" t="inlineStr">
-        <is>
-          <t>The Eye (T3)</t>
-        </is>
-      </c>
-      <c r="C51" s="7" t="inlineStr">
-        <is>
-          <t>Eye Imbue 1</t>
-        </is>
-      </c>
-      <c r="D51" s="7" t="inlineStr">
-        <is>
-          <t>Dropdown</t>
-        </is>
-      </c>
-      <c r="E51" s="7" t="inlineStr">
-        <is>
-          <t>None (No Imbue) + spell ids</t>
-        </is>
-      </c>
-      <c r="F51" s="7" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G51" s="7" t="inlineStr">
-        <is>
-          <t>Imbue</t>
-        </is>
-      </c>
-      <c r="H51" s="7" t="inlineStr">
-        <is>
-          <t>Source of truth for slot spell</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="7" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="B52" s="7" t="inlineStr">
-        <is>
-          <t>The Eye (T3)</t>
-        </is>
-      </c>
-      <c r="C52" s="7" t="inlineStr">
-        <is>
-          <t>Eye Chance 1</t>
-        </is>
-      </c>
-      <c r="D52" s="7" t="inlineStr">
-        <is>
-          <t>Slider</t>
-        </is>
-      </c>
-      <c r="E52" s="7" t="inlineStr">
-        <is>
-          <t>0..100 in 5% steps</t>
-        </is>
-      </c>
-      <c r="F52" s="7" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G52" s="7" t="inlineStr">
-        <is>
-          <t>Chance</t>
-        </is>
-      </c>
-      <c r="H52" s="7" t="inlineStr">
-        <is>
-          <t>Source of truth for slot chance</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="7" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="B53" s="7" t="inlineStr">
-        <is>
-          <t>The Eye (T3)</t>
-        </is>
-      </c>
-      <c r="C53" s="7" t="inlineStr">
-        <is>
-          <t>Eye Strength 1</t>
-        </is>
-      </c>
-      <c r="D53" s="7" t="inlineStr">
-        <is>
-          <t>Slider</t>
-        </is>
-      </c>
-      <c r="E53" s="7" t="inlineStr">
-        <is>
-          <t>0..100 in 5% steps</t>
-        </is>
-      </c>
-      <c r="F53" s="7" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G53" s="7" t="inlineStr">
-        <is>
-          <t>Strength</t>
-        </is>
-      </c>
-      <c r="H53" s="7" t="inlineStr">
+      <c r="H53" s="6" t="inlineStr">
         <is>
           <t>Source of truth for slot strength</t>
         </is>
@@ -2764,7 +2764,7 @@
     <row r="54">
       <c r="A54" s="7" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B54" s="7" t="inlineStr">
@@ -2774,17 +2774,17 @@
       </c>
       <c r="C54" s="7" t="inlineStr">
         <is>
-          <t>Eye Imbue 2</t>
+          <t>Eye Enabled</t>
         </is>
       </c>
       <c r="D54" s="7" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Toggle</t>
         </is>
       </c>
       <c r="E54" s="7" t="inlineStr">
         <is>
-          <t>None (No Imbue) + spell ids</t>
+          <t>On/Off</t>
         </is>
       </c>
       <c r="F54" s="7" t="inlineStr">
@@ -2794,19 +2794,19 @@
       </c>
       <c r="G54" s="7" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Profile</t>
         </is>
       </c>
       <c r="H54" s="7" t="inlineStr">
         <is>
-          <t>Source of truth for slot spell</t>
+          <t>Source of truth for faction eligibility</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="7" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B55" s="7" t="inlineStr">
@@ -2816,17 +2816,17 @@
       </c>
       <c r="C55" s="7" t="inlineStr">
         <is>
-          <t>Eye Chance 2</t>
+          <t>Eye Imbue 1</t>
         </is>
       </c>
       <c r="D55" s="7" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="E55" s="7" t="inlineStr">
         <is>
-          <t>0..100 in 5% steps</t>
+          <t>None (No Imbue) + spell ids</t>
         </is>
       </c>
       <c r="F55" s="7" t="inlineStr">
@@ -2836,19 +2836,19 @@
       </c>
       <c r="G55" s="7" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="H55" s="7" t="inlineStr">
         <is>
-          <t>Source of truth for slot chance</t>
+          <t>Source of truth for slot spell</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="7" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B56" s="7" t="inlineStr">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>Eye Strength 2</t>
+          <t>Eye Chance 1</t>
         </is>
       </c>
       <c r="D56" s="7" t="inlineStr">
@@ -2878,19 +2878,19 @@
       </c>
       <c r="G56" s="7" t="inlineStr">
         <is>
-          <t>Strength</t>
+          <t>Chance</t>
         </is>
       </c>
       <c r="H56" s="7" t="inlineStr">
         <is>
-          <t>Source of truth for slot strength</t>
+          <t>Source of truth for slot chance</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="7" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B57" s="7" t="inlineStr">
@@ -2900,17 +2900,17 @@
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>Eye Imbue 3</t>
+          <t>Eye Strength 1</t>
         </is>
       </c>
       <c r="D57" s="7" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Slider</t>
         </is>
       </c>
       <c r="E57" s="7" t="inlineStr">
         <is>
-          <t>None (No Imbue) + spell ids</t>
+          <t>0..100 in 5% steps</t>
         </is>
       </c>
       <c r="F57" s="7" t="inlineStr">
@@ -2920,19 +2920,19 @@
       </c>
       <c r="G57" s="7" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Strength</t>
         </is>
       </c>
       <c r="H57" s="7" t="inlineStr">
         <is>
-          <t>Source of truth for slot spell</t>
+          <t>Source of truth for slot strength</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="7" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B58" s="7" t="inlineStr">
@@ -2942,17 +2942,17 @@
       </c>
       <c r="C58" s="7" t="inlineStr">
         <is>
-          <t>Eye Chance 3</t>
+          <t>Eye Imbue 2</t>
         </is>
       </c>
       <c r="D58" s="7" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="E58" s="7" t="inlineStr">
         <is>
-          <t>0..100 in 5% steps</t>
+          <t>None (No Imbue) + spell ids</t>
         </is>
       </c>
       <c r="F58" s="7" t="inlineStr">
@@ -2962,220 +2962,220 @@
       </c>
       <c r="G58" s="7" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="H58" s="7" t="inlineStr">
         <is>
-          <t>Source of truth for slot chance</t>
+          <t>Source of truth for slot spell</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="7" t="inlineStr">
         <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="B59" s="7" t="inlineStr">
+        <is>
+          <t>The Eye (T3)</t>
+        </is>
+      </c>
+      <c r="C59" s="7" t="inlineStr">
+        <is>
+          <t>Eye Chance 2</t>
+        </is>
+      </c>
+      <c r="D59" s="7" t="inlineStr">
+        <is>
+          <t>Slider</t>
+        </is>
+      </c>
+      <c r="E59" s="7" t="inlineStr">
+        <is>
+          <t>0..100 in 5% steps</t>
+        </is>
+      </c>
+      <c r="F59" s="7" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G59" s="7" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="H59" s="7" t="inlineStr">
+        <is>
+          <t>Source of truth for slot chance</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="B60" s="7" t="inlineStr">
+        <is>
+          <t>The Eye (T3)</t>
+        </is>
+      </c>
+      <c r="C60" s="7" t="inlineStr">
+        <is>
+          <t>Eye Strength 2</t>
+        </is>
+      </c>
+      <c r="D60" s="7" t="inlineStr">
+        <is>
+          <t>Slider</t>
+        </is>
+      </c>
+      <c r="E60" s="7" t="inlineStr">
+        <is>
+          <t>0..100 in 5% steps</t>
+        </is>
+      </c>
+      <c r="F60" s="7" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G60" s="7" t="inlineStr">
+        <is>
+          <t>Strength</t>
+        </is>
+      </c>
+      <c r="H60" s="7" t="inlineStr">
+        <is>
+          <t>Source of truth for slot strength</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="B61" s="7" t="inlineStr">
+        <is>
+          <t>The Eye (T3)</t>
+        </is>
+      </c>
+      <c r="C61" s="7" t="inlineStr">
+        <is>
+          <t>Eye Imbue 3</t>
+        </is>
+      </c>
+      <c r="D61" s="7" t="inlineStr">
+        <is>
+          <t>Dropdown</t>
+        </is>
+      </c>
+      <c r="E61" s="7" t="inlineStr">
+        <is>
+          <t>None (No Imbue) + spell ids</t>
+        </is>
+      </c>
+      <c r="F61" s="7" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G61" s="7" t="inlineStr">
+        <is>
+          <t>Imbue</t>
+        </is>
+      </c>
+      <c r="H61" s="7" t="inlineStr">
+        <is>
+          <t>Source of truth for slot spell</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="B62" s="7" t="inlineStr">
+        <is>
+          <t>The Eye (T3)</t>
+        </is>
+      </c>
+      <c r="C62" s="7" t="inlineStr">
+        <is>
+          <t>Eye Chance 3</t>
+        </is>
+      </c>
+      <c r="D62" s="7" t="inlineStr">
+        <is>
+          <t>Slider</t>
+        </is>
+      </c>
+      <c r="E62" s="7" t="inlineStr">
+        <is>
+          <t>0..100 in 5% steps</t>
+        </is>
+      </c>
+      <c r="F62" s="7" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G62" s="7" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="H62" s="7" t="inlineStr">
+        <is>
+          <t>Source of truth for slot chance</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="inlineStr">
+        <is>
           <t>149</t>
         </is>
       </c>
-      <c r="B59" s="7" t="inlineStr">
+      <c r="B63" s="7" t="inlineStr">
         <is>
           <t>The Eye (T3)</t>
         </is>
       </c>
-      <c r="C59" s="7" t="inlineStr">
+      <c r="C63" s="7" t="inlineStr">
         <is>
           <t>Eye Strength 3</t>
         </is>
       </c>
-      <c r="D59" s="7" t="inlineStr">
+      <c r="D63" s="7" t="inlineStr">
         <is>
           <t>Slider</t>
         </is>
       </c>
-      <c r="E59" s="7" t="inlineStr">
+      <c r="E63" s="7" t="inlineStr">
         <is>
           <t>0..100 in 5% steps</t>
         </is>
       </c>
-      <c r="F59" s="7" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G59" s="7" t="inlineStr">
+      <c r="F63" s="7" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G63" s="7" t="inlineStr">
         <is>
           <t>Strength</t>
         </is>
       </c>
-      <c r="H59" s="7" t="inlineStr">
-        <is>
-          <t>Source of truth for slot strength</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="8" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="B60" s="8" t="inlineStr">
-        <is>
-          <t>Rakta</t>
-        </is>
-      </c>
-      <c r="C60" s="8" t="inlineStr">
-        <is>
-          <t>Rakta Enabled</t>
-        </is>
-      </c>
-      <c r="D60" s="8" t="inlineStr">
-        <is>
-          <t>Toggle</t>
-        </is>
-      </c>
-      <c r="E60" s="8" t="inlineStr">
-        <is>
-          <t>On/Off</t>
-        </is>
-      </c>
-      <c r="F60" s="8" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G60" s="8" t="inlineStr">
-        <is>
-          <t>Profile</t>
-        </is>
-      </c>
-      <c r="H60" s="8" t="inlineStr">
-        <is>
-          <t>Source of truth for faction eligibility</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="8" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="B61" s="8" t="inlineStr">
-        <is>
-          <t>Rakta</t>
-        </is>
-      </c>
-      <c r="C61" s="8" t="inlineStr">
-        <is>
-          <t>Rakta Imbue 1</t>
-        </is>
-      </c>
-      <c r="D61" s="8" t="inlineStr">
-        <is>
-          <t>Dropdown</t>
-        </is>
-      </c>
-      <c r="E61" s="8" t="inlineStr">
-        <is>
-          <t>None (No Imbue) + spell ids</t>
-        </is>
-      </c>
-      <c r="F61" s="8" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G61" s="8" t="inlineStr">
-        <is>
-          <t>Imbue</t>
-        </is>
-      </c>
-      <c r="H61" s="8" t="inlineStr">
-        <is>
-          <t>Source of truth for slot spell</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="8" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="B62" s="8" t="inlineStr">
-        <is>
-          <t>Rakta</t>
-        </is>
-      </c>
-      <c r="C62" s="8" t="inlineStr">
-        <is>
-          <t>Rakta Chance 1</t>
-        </is>
-      </c>
-      <c r="D62" s="8" t="inlineStr">
-        <is>
-          <t>Slider</t>
-        </is>
-      </c>
-      <c r="E62" s="8" t="inlineStr">
-        <is>
-          <t>0..100 in 5% steps</t>
-        </is>
-      </c>
-      <c r="F62" s="8" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G62" s="8" t="inlineStr">
-        <is>
-          <t>Chance</t>
-        </is>
-      </c>
-      <c r="H62" s="8" t="inlineStr">
-        <is>
-          <t>Source of truth for slot chance</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="8" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
-      </c>
-      <c r="B63" s="8" t="inlineStr">
-        <is>
-          <t>Rakta</t>
-        </is>
-      </c>
-      <c r="C63" s="8" t="inlineStr">
-        <is>
-          <t>Rakta Strength 1</t>
-        </is>
-      </c>
-      <c r="D63" s="8" t="inlineStr">
-        <is>
-          <t>Slider</t>
-        </is>
-      </c>
-      <c r="E63" s="8" t="inlineStr">
-        <is>
-          <t>0..100 in 5% steps</t>
-        </is>
-      </c>
-      <c r="F63" s="8" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G63" s="8" t="inlineStr">
-        <is>
-          <t>Strength</t>
-        </is>
-      </c>
-      <c r="H63" s="8" t="inlineStr">
+      <c r="H63" s="7" t="inlineStr">
         <is>
           <t>Source of truth for slot strength</t>
         </is>
@@ -3184,7 +3184,7 @@
     <row r="64">
       <c r="A64" s="8" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B64" s="8" t="inlineStr">
@@ -3194,17 +3194,17 @@
       </c>
       <c r="C64" s="8" t="inlineStr">
         <is>
-          <t>Rakta Imbue 2</t>
+          <t>Rakta Enabled</t>
         </is>
       </c>
       <c r="D64" s="8" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Toggle</t>
         </is>
       </c>
       <c r="E64" s="8" t="inlineStr">
         <is>
-          <t>None (No Imbue) + spell ids</t>
+          <t>On/Off</t>
         </is>
       </c>
       <c r="F64" s="8" t="inlineStr">
@@ -3214,19 +3214,19 @@
       </c>
       <c r="G64" s="8" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Profile</t>
         </is>
       </c>
       <c r="H64" s="8" t="inlineStr">
         <is>
-          <t>Source of truth for slot spell</t>
+          <t>Source of truth for faction eligibility</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="8" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B65" s="8" t="inlineStr">
@@ -3236,17 +3236,17 @@
       </c>
       <c r="C65" s="8" t="inlineStr">
         <is>
-          <t>Rakta Chance 2</t>
+          <t>Rakta Imbue 1</t>
         </is>
       </c>
       <c r="D65" s="8" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="E65" s="8" t="inlineStr">
         <is>
-          <t>0..100 in 5% steps</t>
+          <t>None (No Imbue) + spell ids</t>
         </is>
       </c>
       <c r="F65" s="8" t="inlineStr">
@@ -3256,19 +3256,19 @@
       </c>
       <c r="G65" s="8" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="H65" s="8" t="inlineStr">
         <is>
-          <t>Source of truth for slot chance</t>
+          <t>Source of truth for slot spell</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="8" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B66" s="8" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="C66" s="8" t="inlineStr">
         <is>
-          <t>Rakta Strength 2</t>
+          <t>Rakta Chance 1</t>
         </is>
       </c>
       <c r="D66" s="8" t="inlineStr">
@@ -3298,19 +3298,19 @@
       </c>
       <c r="G66" s="8" t="inlineStr">
         <is>
-          <t>Strength</t>
+          <t>Chance</t>
         </is>
       </c>
       <c r="H66" s="8" t="inlineStr">
         <is>
-          <t>Source of truth for slot strength</t>
+          <t>Source of truth for slot chance</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="8" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B67" s="8" t="inlineStr">
@@ -3320,17 +3320,17 @@
       </c>
       <c r="C67" s="8" t="inlineStr">
         <is>
-          <t>Rakta Imbue 3</t>
+          <t>Rakta Strength 1</t>
         </is>
       </c>
       <c r="D67" s="8" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Slider</t>
         </is>
       </c>
       <c r="E67" s="8" t="inlineStr">
         <is>
-          <t>None (No Imbue) + spell ids</t>
+          <t>0..100 in 5% steps</t>
         </is>
       </c>
       <c r="F67" s="8" t="inlineStr">
@@ -3340,19 +3340,19 @@
       </c>
       <c r="G67" s="8" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Strength</t>
         </is>
       </c>
       <c r="H67" s="8" t="inlineStr">
         <is>
-          <t>Source of truth for slot spell</t>
+          <t>Source of truth for slot strength</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="8" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B68" s="8" t="inlineStr">
@@ -3362,17 +3362,17 @@
       </c>
       <c r="C68" s="8" t="inlineStr">
         <is>
-          <t>Rakta Chance 3</t>
+          <t>Rakta Imbue 2</t>
         </is>
       </c>
       <c r="D68" s="8" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="E68" s="8" t="inlineStr">
         <is>
-          <t>0..100 in 5% steps</t>
+          <t>None (No Imbue) + spell ids</t>
         </is>
       </c>
       <c r="F68" s="8" t="inlineStr">
@@ -3382,220 +3382,220 @@
       </c>
       <c r="G68" s="8" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="H68" s="8" t="inlineStr">
         <is>
-          <t>Source of truth for slot chance</t>
+          <t>Source of truth for slot spell</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="8" t="inlineStr">
         <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="B69" s="8" t="inlineStr">
+        <is>
+          <t>Rakta</t>
+        </is>
+      </c>
+      <c r="C69" s="8" t="inlineStr">
+        <is>
+          <t>Rakta Chance 2</t>
+        </is>
+      </c>
+      <c r="D69" s="8" t="inlineStr">
+        <is>
+          <t>Slider</t>
+        </is>
+      </c>
+      <c r="E69" s="8" t="inlineStr">
+        <is>
+          <t>0..100 in 5% steps</t>
+        </is>
+      </c>
+      <c r="F69" s="8" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G69" s="8" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="H69" s="8" t="inlineStr">
+        <is>
+          <t>Source of truth for slot chance</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="8" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="B70" s="8" t="inlineStr">
+        <is>
+          <t>Rakta</t>
+        </is>
+      </c>
+      <c r="C70" s="8" t="inlineStr">
+        <is>
+          <t>Rakta Strength 2</t>
+        </is>
+      </c>
+      <c r="D70" s="8" t="inlineStr">
+        <is>
+          <t>Slider</t>
+        </is>
+      </c>
+      <c r="E70" s="8" t="inlineStr">
+        <is>
+          <t>0..100 in 5% steps</t>
+        </is>
+      </c>
+      <c r="F70" s="8" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G70" s="8" t="inlineStr">
+        <is>
+          <t>Strength</t>
+        </is>
+      </c>
+      <c r="H70" s="8" t="inlineStr">
+        <is>
+          <t>Source of truth for slot strength</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="8" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="B71" s="8" t="inlineStr">
+        <is>
+          <t>Rakta</t>
+        </is>
+      </c>
+      <c r="C71" s="8" t="inlineStr">
+        <is>
+          <t>Rakta Imbue 3</t>
+        </is>
+      </c>
+      <c r="D71" s="8" t="inlineStr">
+        <is>
+          <t>Dropdown</t>
+        </is>
+      </c>
+      <c r="E71" s="8" t="inlineStr">
+        <is>
+          <t>None (No Imbue) + spell ids</t>
+        </is>
+      </c>
+      <c r="F71" s="8" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G71" s="8" t="inlineStr">
+        <is>
+          <t>Imbue</t>
+        </is>
+      </c>
+      <c r="H71" s="8" t="inlineStr">
+        <is>
+          <t>Source of truth for slot spell</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="B72" s="8" t="inlineStr">
+        <is>
+          <t>Rakta</t>
+        </is>
+      </c>
+      <c r="C72" s="8" t="inlineStr">
+        <is>
+          <t>Rakta Chance 3</t>
+        </is>
+      </c>
+      <c r="D72" s="8" t="inlineStr">
+        <is>
+          <t>Slider</t>
+        </is>
+      </c>
+      <c r="E72" s="8" t="inlineStr">
+        <is>
+          <t>0..100 in 5% steps</t>
+        </is>
+      </c>
+      <c r="F72" s="8" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G72" s="8" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="H72" s="8" t="inlineStr">
+        <is>
+          <t>Source of truth for slot chance</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="8" t="inlineStr">
+        <is>
           <t>159</t>
         </is>
       </c>
-      <c r="B69" s="8" t="inlineStr">
+      <c r="B73" s="8" t="inlineStr">
         <is>
           <t>Rakta</t>
         </is>
       </c>
-      <c r="C69" s="8" t="inlineStr">
+      <c r="C73" s="8" t="inlineStr">
         <is>
           <t>Rakta Strength 3</t>
         </is>
       </c>
-      <c r="D69" s="8" t="inlineStr">
+      <c r="D73" s="8" t="inlineStr">
         <is>
           <t>Slider</t>
         </is>
       </c>
-      <c r="E69" s="8" t="inlineStr">
+      <c r="E73" s="8" t="inlineStr">
         <is>
           <t>0..100 in 5% steps</t>
         </is>
       </c>
-      <c r="F69" s="8" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G69" s="8" t="inlineStr">
+      <c r="F73" s="8" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G73" s="8" t="inlineStr">
         <is>
           <t>Strength</t>
         </is>
       </c>
-      <c r="H69" s="8" t="inlineStr">
-        <is>
-          <t>Source of truth for slot strength</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="9" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="B70" s="9" t="inlineStr">
-        <is>
-          <t>Special / Rogue</t>
-        </is>
-      </c>
-      <c r="C70" s="9" t="inlineStr">
-        <is>
-          <t>Special Enabled</t>
-        </is>
-      </c>
-      <c r="D70" s="9" t="inlineStr">
-        <is>
-          <t>Toggle</t>
-        </is>
-      </c>
-      <c r="E70" s="9" t="inlineStr">
-        <is>
-          <t>On/Off</t>
-        </is>
-      </c>
-      <c r="F70" s="9" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G70" s="9" t="inlineStr">
-        <is>
-          <t>Profile</t>
-        </is>
-      </c>
-      <c r="H70" s="9" t="inlineStr">
-        <is>
-          <t>Source of truth for faction eligibility</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="9" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="B71" s="9" t="inlineStr">
-        <is>
-          <t>Special / Rogue</t>
-        </is>
-      </c>
-      <c r="C71" s="9" t="inlineStr">
-        <is>
-          <t>Special Imbue 1</t>
-        </is>
-      </c>
-      <c r="D71" s="9" t="inlineStr">
-        <is>
-          <t>Dropdown</t>
-        </is>
-      </c>
-      <c r="E71" s="9" t="inlineStr">
-        <is>
-          <t>None (No Imbue) + spell ids</t>
-        </is>
-      </c>
-      <c r="F71" s="9" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G71" s="9" t="inlineStr">
-        <is>
-          <t>Imbue</t>
-        </is>
-      </c>
-      <c r="H71" s="9" t="inlineStr">
-        <is>
-          <t>Source of truth for slot spell</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="9" t="inlineStr">
-        <is>
-          <t>162</t>
-        </is>
-      </c>
-      <c r="B72" s="9" t="inlineStr">
-        <is>
-          <t>Special / Rogue</t>
-        </is>
-      </c>
-      <c r="C72" s="9" t="inlineStr">
-        <is>
-          <t>Special Chance 1</t>
-        </is>
-      </c>
-      <c r="D72" s="9" t="inlineStr">
-        <is>
-          <t>Slider</t>
-        </is>
-      </c>
-      <c r="E72" s="9" t="inlineStr">
-        <is>
-          <t>0..100 in 5% steps</t>
-        </is>
-      </c>
-      <c r="F72" s="9" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G72" s="9" t="inlineStr">
-        <is>
-          <t>Chance</t>
-        </is>
-      </c>
-      <c r="H72" s="9" t="inlineStr">
-        <is>
-          <t>Source of truth for slot chance</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="9" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="B73" s="9" t="inlineStr">
-        <is>
-          <t>Special / Rogue</t>
-        </is>
-      </c>
-      <c r="C73" s="9" t="inlineStr">
-        <is>
-          <t>Special Strength 1</t>
-        </is>
-      </c>
-      <c r="D73" s="9" t="inlineStr">
-        <is>
-          <t>Slider</t>
-        </is>
-      </c>
-      <c r="E73" s="9" t="inlineStr">
-        <is>
-          <t>0..100 in 5% steps</t>
-        </is>
-      </c>
-      <c r="F73" s="9" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G73" s="9" t="inlineStr">
-        <is>
-          <t>Strength</t>
-        </is>
-      </c>
-      <c r="H73" s="9" t="inlineStr">
+      <c r="H73" s="8" t="inlineStr">
         <is>
           <t>Source of truth for slot strength</t>
         </is>
@@ -3604,7 +3604,7 @@
     <row r="74">
       <c r="A74" s="9" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B74" s="9" t="inlineStr">
@@ -3614,17 +3614,17 @@
       </c>
       <c r="C74" s="9" t="inlineStr">
         <is>
-          <t>Special Imbue 2</t>
+          <t>Special Enabled</t>
         </is>
       </c>
       <c r="D74" s="9" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Toggle</t>
         </is>
       </c>
       <c r="E74" s="9" t="inlineStr">
         <is>
-          <t>None (No Imbue) + spell ids</t>
+          <t>On/Off</t>
         </is>
       </c>
       <c r="F74" s="9" t="inlineStr">
@@ -3634,19 +3634,19 @@
       </c>
       <c r="G74" s="9" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Profile</t>
         </is>
       </c>
       <c r="H74" s="9" t="inlineStr">
         <is>
-          <t>Source of truth for slot spell</t>
+          <t>Source of truth for faction eligibility</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="9" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B75" s="9" t="inlineStr">
@@ -3656,17 +3656,17 @@
       </c>
       <c r="C75" s="9" t="inlineStr">
         <is>
-          <t>Special Chance 2</t>
+          <t>Special Imbue 1</t>
         </is>
       </c>
       <c r="D75" s="9" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="E75" s="9" t="inlineStr">
         <is>
-          <t>0..100 in 5% steps</t>
+          <t>None (No Imbue) + spell ids</t>
         </is>
       </c>
       <c r="F75" s="9" t="inlineStr">
@@ -3676,19 +3676,19 @@
       </c>
       <c r="G75" s="9" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="H75" s="9" t="inlineStr">
         <is>
-          <t>Source of truth for slot chance</t>
+          <t>Source of truth for slot spell</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="9" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B76" s="9" t="inlineStr">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="C76" s="9" t="inlineStr">
         <is>
-          <t>Special Strength 2</t>
+          <t>Special Chance 1</t>
         </is>
       </c>
       <c r="D76" s="9" t="inlineStr">
@@ -3718,19 +3718,19 @@
       </c>
       <c r="G76" s="9" t="inlineStr">
         <is>
-          <t>Strength</t>
+          <t>Chance</t>
         </is>
       </c>
       <c r="H76" s="9" t="inlineStr">
         <is>
-          <t>Source of truth for slot strength</t>
+          <t>Source of truth for slot chance</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="9" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B77" s="9" t="inlineStr">
@@ -3740,17 +3740,17 @@
       </c>
       <c r="C77" s="9" t="inlineStr">
         <is>
-          <t>Special Imbue 3</t>
+          <t>Special Strength 1</t>
         </is>
       </c>
       <c r="D77" s="9" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Slider</t>
         </is>
       </c>
       <c r="E77" s="9" t="inlineStr">
         <is>
-          <t>None (No Imbue) + spell ids</t>
+          <t>0..100 in 5% steps</t>
         </is>
       </c>
       <c r="F77" s="9" t="inlineStr">
@@ -3760,19 +3760,19 @@
       </c>
       <c r="G77" s="9" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Strength</t>
         </is>
       </c>
       <c r="H77" s="9" t="inlineStr">
         <is>
-          <t>Source of truth for slot spell</t>
+          <t>Source of truth for slot strength</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="9" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B78" s="9" t="inlineStr">
@@ -3782,17 +3782,17 @@
       </c>
       <c r="C78" s="9" t="inlineStr">
         <is>
-          <t>Special Chance 3</t>
+          <t>Special Imbue 2</t>
         </is>
       </c>
       <c r="D78" s="9" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="E78" s="9" t="inlineStr">
         <is>
-          <t>0..100 in 5% steps</t>
+          <t>None (No Imbue) + spell ids</t>
         </is>
       </c>
       <c r="F78" s="9" t="inlineStr">
@@ -3802,220 +3802,220 @@
       </c>
       <c r="G78" s="9" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="H78" s="9" t="inlineStr">
         <is>
-          <t>Source of truth for slot chance</t>
+          <t>Source of truth for slot spell</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="9" t="inlineStr">
         <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="B79" s="9" t="inlineStr">
+        <is>
+          <t>Special / Rogue</t>
+        </is>
+      </c>
+      <c r="C79" s="9" t="inlineStr">
+        <is>
+          <t>Special Chance 2</t>
+        </is>
+      </c>
+      <c r="D79" s="9" t="inlineStr">
+        <is>
+          <t>Slider</t>
+        </is>
+      </c>
+      <c r="E79" s="9" t="inlineStr">
+        <is>
+          <t>0..100 in 5% steps</t>
+        </is>
+      </c>
+      <c r="F79" s="9" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G79" s="9" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="H79" s="9" t="inlineStr">
+        <is>
+          <t>Source of truth for slot chance</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="B80" s="9" t="inlineStr">
+        <is>
+          <t>Special / Rogue</t>
+        </is>
+      </c>
+      <c r="C80" s="9" t="inlineStr">
+        <is>
+          <t>Special Strength 2</t>
+        </is>
+      </c>
+      <c r="D80" s="9" t="inlineStr">
+        <is>
+          <t>Slider</t>
+        </is>
+      </c>
+      <c r="E80" s="9" t="inlineStr">
+        <is>
+          <t>0..100 in 5% steps</t>
+        </is>
+      </c>
+      <c r="F80" s="9" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G80" s="9" t="inlineStr">
+        <is>
+          <t>Strength</t>
+        </is>
+      </c>
+      <c r="H80" s="9" t="inlineStr">
+        <is>
+          <t>Source of truth for slot strength</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="B81" s="9" t="inlineStr">
+        <is>
+          <t>Special / Rogue</t>
+        </is>
+      </c>
+      <c r="C81" s="9" t="inlineStr">
+        <is>
+          <t>Special Imbue 3</t>
+        </is>
+      </c>
+      <c r="D81" s="9" t="inlineStr">
+        <is>
+          <t>Dropdown</t>
+        </is>
+      </c>
+      <c r="E81" s="9" t="inlineStr">
+        <is>
+          <t>None (No Imbue) + spell ids</t>
+        </is>
+      </c>
+      <c r="F81" s="9" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G81" s="9" t="inlineStr">
+        <is>
+          <t>Imbue</t>
+        </is>
+      </c>
+      <c r="H81" s="9" t="inlineStr">
+        <is>
+          <t>Source of truth for slot spell</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="B82" s="9" t="inlineStr">
+        <is>
+          <t>Special / Rogue</t>
+        </is>
+      </c>
+      <c r="C82" s="9" t="inlineStr">
+        <is>
+          <t>Special Chance 3</t>
+        </is>
+      </c>
+      <c r="D82" s="9" t="inlineStr">
+        <is>
+          <t>Slider</t>
+        </is>
+      </c>
+      <c r="E82" s="9" t="inlineStr">
+        <is>
+          <t>0..100 in 5% steps</t>
+        </is>
+      </c>
+      <c r="F82" s="9" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G82" s="9" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="H82" s="9" t="inlineStr">
+        <is>
+          <t>Source of truth for slot chance</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="inlineStr">
+        <is>
           <t>169</t>
         </is>
       </c>
-      <c r="B79" s="9" t="inlineStr">
+      <c r="B83" s="9" t="inlineStr">
         <is>
           <t>Special / Rogue</t>
         </is>
       </c>
-      <c r="C79" s="9" t="inlineStr">
+      <c r="C83" s="9" t="inlineStr">
         <is>
           <t>Special Strength 3</t>
         </is>
       </c>
-      <c r="D79" s="9" t="inlineStr">
+      <c r="D83" s="9" t="inlineStr">
         <is>
           <t>Slider</t>
         </is>
       </c>
-      <c r="E79" s="9" t="inlineStr">
+      <c r="E83" s="9" t="inlineStr">
         <is>
           <t>0..100 in 5% steps</t>
         </is>
       </c>
-      <c r="F79" s="9" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G79" s="9" t="inlineStr">
+      <c r="F83" s="9" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G83" s="9" t="inlineStr">
         <is>
           <t>Strength</t>
         </is>
       </c>
-      <c r="H79" s="9" t="inlineStr">
-        <is>
-          <t>Source of truth for slot strength</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="10" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="B80" s="10" t="inlineStr">
-        <is>
-          <t>Fallback (Any Enemy)</t>
-        </is>
-      </c>
-      <c r="C80" s="10" t="inlineStr">
-        <is>
-          <t>Fallback Enabled</t>
-        </is>
-      </c>
-      <c r="D80" s="10" t="inlineStr">
-        <is>
-          <t>Toggle</t>
-        </is>
-      </c>
-      <c r="E80" s="10" t="inlineStr">
-        <is>
-          <t>On/Off</t>
-        </is>
-      </c>
-      <c r="F80" s="10" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G80" s="10" t="inlineStr">
-        <is>
-          <t>Profile</t>
-        </is>
-      </c>
-      <c r="H80" s="10" t="inlineStr">
-        <is>
-          <t>Source of truth for faction eligibility</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="10" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="B81" s="10" t="inlineStr">
-        <is>
-          <t>Fallback (Any Enemy)</t>
-        </is>
-      </c>
-      <c r="C81" s="10" t="inlineStr">
-        <is>
-          <t>Fallback Imbue 1</t>
-        </is>
-      </c>
-      <c r="D81" s="10" t="inlineStr">
-        <is>
-          <t>Dropdown</t>
-        </is>
-      </c>
-      <c r="E81" s="10" t="inlineStr">
-        <is>
-          <t>None (No Imbue) + spell ids</t>
-        </is>
-      </c>
-      <c r="F81" s="10" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G81" s="10" t="inlineStr">
-        <is>
-          <t>Imbue</t>
-        </is>
-      </c>
-      <c r="H81" s="10" t="inlineStr">
-        <is>
-          <t>Source of truth for slot spell</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="10" t="inlineStr">
-        <is>
-          <t>172</t>
-        </is>
-      </c>
-      <c r="B82" s="10" t="inlineStr">
-        <is>
-          <t>Fallback (Any Enemy)</t>
-        </is>
-      </c>
-      <c r="C82" s="10" t="inlineStr">
-        <is>
-          <t>Fallback Chance 1</t>
-        </is>
-      </c>
-      <c r="D82" s="10" t="inlineStr">
-        <is>
-          <t>Slider</t>
-        </is>
-      </c>
-      <c r="E82" s="10" t="inlineStr">
-        <is>
-          <t>0..100 in 5% steps</t>
-        </is>
-      </c>
-      <c r="F82" s="10" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G82" s="10" t="inlineStr">
-        <is>
-          <t>Chance</t>
-        </is>
-      </c>
-      <c r="H82" s="10" t="inlineStr">
-        <is>
-          <t>Source of truth for slot chance</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="10" t="inlineStr">
-        <is>
-          <t>173</t>
-        </is>
-      </c>
-      <c r="B83" s="10" t="inlineStr">
-        <is>
-          <t>Fallback (Any Enemy)</t>
-        </is>
-      </c>
-      <c r="C83" s="10" t="inlineStr">
-        <is>
-          <t>Fallback Strength 1</t>
-        </is>
-      </c>
-      <c r="D83" s="10" t="inlineStr">
-        <is>
-          <t>Slider</t>
-        </is>
-      </c>
-      <c r="E83" s="10" t="inlineStr">
-        <is>
-          <t>0..100 in 5% steps</t>
-        </is>
-      </c>
-      <c r="F83" s="10" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G83" s="10" t="inlineStr">
-        <is>
-          <t>Strength</t>
-        </is>
-      </c>
-      <c r="H83" s="10" t="inlineStr">
+      <c r="H83" s="9" t="inlineStr">
         <is>
           <t>Source of truth for slot strength</t>
         </is>
@@ -4024,7 +4024,7 @@
     <row r="84">
       <c r="A84" s="10" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B84" s="10" t="inlineStr">
@@ -4034,17 +4034,17 @@
       </c>
       <c r="C84" s="10" t="inlineStr">
         <is>
-          <t>Fallback Imbue 2</t>
+          <t>Fallback Enabled</t>
         </is>
       </c>
       <c r="D84" s="10" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Toggle</t>
         </is>
       </c>
       <c r="E84" s="10" t="inlineStr">
         <is>
-          <t>None (No Imbue) + spell ids</t>
+          <t>On/Off</t>
         </is>
       </c>
       <c r="F84" s="10" t="inlineStr">
@@ -4054,19 +4054,19 @@
       </c>
       <c r="G84" s="10" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Profile</t>
         </is>
       </c>
       <c r="H84" s="10" t="inlineStr">
         <is>
-          <t>Source of truth for slot spell</t>
+          <t>Source of truth for faction eligibility</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="10" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B85" s="10" t="inlineStr">
@@ -4076,17 +4076,17 @@
       </c>
       <c r="C85" s="10" t="inlineStr">
         <is>
-          <t>Fallback Chance 2</t>
+          <t>Fallback Imbue 1</t>
         </is>
       </c>
       <c r="D85" s="10" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="E85" s="10" t="inlineStr">
         <is>
-          <t>0..100 in 5% steps</t>
+          <t>None (No Imbue) + spell ids</t>
         </is>
       </c>
       <c r="F85" s="10" t="inlineStr">
@@ -4096,19 +4096,19 @@
       </c>
       <c r="G85" s="10" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="H85" s="10" t="inlineStr">
         <is>
-          <t>Source of truth for slot chance</t>
+          <t>Source of truth for slot spell</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="10" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B86" s="10" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C86" s="10" t="inlineStr">
         <is>
-          <t>Fallback Strength 2</t>
+          <t>Fallback Chance 1</t>
         </is>
       </c>
       <c r="D86" s="10" t="inlineStr">
@@ -4138,19 +4138,19 @@
       </c>
       <c r="G86" s="10" t="inlineStr">
         <is>
-          <t>Strength</t>
+          <t>Chance</t>
         </is>
       </c>
       <c r="H86" s="10" t="inlineStr">
         <is>
-          <t>Source of truth for slot strength</t>
+          <t>Source of truth for slot chance</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="10" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B87" s="10" t="inlineStr">
@@ -4160,17 +4160,17 @@
       </c>
       <c r="C87" s="10" t="inlineStr">
         <is>
-          <t>Fallback Imbue 3</t>
+          <t>Fallback Strength 1</t>
         </is>
       </c>
       <c r="D87" s="10" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Slider</t>
         </is>
       </c>
       <c r="E87" s="10" t="inlineStr">
         <is>
-          <t>None (No Imbue) + spell ids</t>
+          <t>0..100 in 5% steps</t>
         </is>
       </c>
       <c r="F87" s="10" t="inlineStr">
@@ -4180,19 +4180,19 @@
       </c>
       <c r="G87" s="10" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Strength</t>
         </is>
       </c>
       <c r="H87" s="10" t="inlineStr">
         <is>
-          <t>Source of truth for slot spell</t>
+          <t>Source of truth for slot strength</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="10" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B88" s="10" t="inlineStr">
@@ -4202,17 +4202,17 @@
       </c>
       <c r="C88" s="10" t="inlineStr">
         <is>
-          <t>Fallback Chance 3</t>
+          <t>Fallback Imbue 2</t>
         </is>
       </c>
       <c r="D88" s="10" t="inlineStr">
         <is>
-          <t>Slider</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="E88" s="10" t="inlineStr">
         <is>
-          <t>0..100 in 5% steps</t>
+          <t>None (No Imbue) + spell ids</t>
         </is>
       </c>
       <c r="F88" s="10" t="inlineStr">
@@ -4222,229 +4222,229 @@
       </c>
       <c r="G88" s="10" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="H88" s="10" t="inlineStr">
         <is>
-          <t>Source of truth for slot chance</t>
+          <t>Source of truth for slot spell</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="10" t="inlineStr">
         <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="B89" s="10" t="inlineStr">
+        <is>
+          <t>Fallback (Any Enemy)</t>
+        </is>
+      </c>
+      <c r="C89" s="10" t="inlineStr">
+        <is>
+          <t>Fallback Chance 2</t>
+        </is>
+      </c>
+      <c r="D89" s="10" t="inlineStr">
+        <is>
+          <t>Slider</t>
+        </is>
+      </c>
+      <c r="E89" s="10" t="inlineStr">
+        <is>
+          <t>0..100 in 5% steps</t>
+        </is>
+      </c>
+      <c r="F89" s="10" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G89" s="10" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="H89" s="10" t="inlineStr">
+        <is>
+          <t>Source of truth for slot chance</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="10" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="B90" s="10" t="inlineStr">
+        <is>
+          <t>Fallback (Any Enemy)</t>
+        </is>
+      </c>
+      <c r="C90" s="10" t="inlineStr">
+        <is>
+          <t>Fallback Strength 2</t>
+        </is>
+      </c>
+      <c r="D90" s="10" t="inlineStr">
+        <is>
+          <t>Slider</t>
+        </is>
+      </c>
+      <c r="E90" s="10" t="inlineStr">
+        <is>
+          <t>0..100 in 5% steps</t>
+        </is>
+      </c>
+      <c r="F90" s="10" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G90" s="10" t="inlineStr">
+        <is>
+          <t>Strength</t>
+        </is>
+      </c>
+      <c r="H90" s="10" t="inlineStr">
+        <is>
+          <t>Source of truth for slot strength</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="10" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="B91" s="10" t="inlineStr">
+        <is>
+          <t>Fallback (Any Enemy)</t>
+        </is>
+      </c>
+      <c r="C91" s="10" t="inlineStr">
+        <is>
+          <t>Fallback Imbue 3</t>
+        </is>
+      </c>
+      <c r="D91" s="10" t="inlineStr">
+        <is>
+          <t>Dropdown</t>
+        </is>
+      </c>
+      <c r="E91" s="10" t="inlineStr">
+        <is>
+          <t>None (No Imbue) + spell ids</t>
+        </is>
+      </c>
+      <c r="F91" s="10" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G91" s="10" t="inlineStr">
+        <is>
+          <t>Imbue</t>
+        </is>
+      </c>
+      <c r="H91" s="10" t="inlineStr">
+        <is>
+          <t>Source of truth for slot spell</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="10" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="B92" s="10" t="inlineStr">
+        <is>
+          <t>Fallback (Any Enemy)</t>
+        </is>
+      </c>
+      <c r="C92" s="10" t="inlineStr">
+        <is>
+          <t>Fallback Chance 3</t>
+        </is>
+      </c>
+      <c r="D92" s="10" t="inlineStr">
+        <is>
+          <t>Slider</t>
+        </is>
+      </c>
+      <c r="E92" s="10" t="inlineStr">
+        <is>
+          <t>0..100 in 5% steps</t>
+        </is>
+      </c>
+      <c r="F92" s="10" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G92" s="10" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="H92" s="10" t="inlineStr">
+        <is>
+          <t>Source of truth for slot chance</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="10" t="inlineStr">
+        <is>
           <t>179</t>
         </is>
       </c>
-      <c r="B89" s="10" t="inlineStr">
+      <c r="B93" s="10" t="inlineStr">
         <is>
           <t>Fallback (Any Enemy)</t>
         </is>
       </c>
-      <c r="C89" s="10" t="inlineStr">
+      <c r="C93" s="10" t="inlineStr">
         <is>
           <t>Fallback Strength 3</t>
         </is>
       </c>
-      <c r="D89" s="10" t="inlineStr">
+      <c r="D93" s="10" t="inlineStr">
         <is>
           <t>Slider</t>
         </is>
       </c>
-      <c r="E89" s="10" t="inlineStr">
+      <c r="E93" s="10" t="inlineStr">
         <is>
           <t>0..100 in 5% steps</t>
         </is>
       </c>
-      <c r="F89" s="10" t="inlineStr">
-        <is>
-          <t>Preset-driven</t>
-        </is>
-      </c>
-      <c r="G89" s="10" t="inlineStr">
+      <c r="F93" s="10" t="inlineStr">
+        <is>
+          <t>Preset-driven</t>
+        </is>
+      </c>
+      <c r="G93" s="10" t="inlineStr">
         <is>
           <t>Strength</t>
         </is>
       </c>
-      <c r="H89" s="10" t="inlineStr">
+      <c r="H93" s="10" t="inlineStr">
         <is>
           <t>Source of truth for slot strength</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="inlineStr">
-        <is>
-          <t>999</t>
-        </is>
-      </c>
-      <c r="B90" s="2" t="inlineStr">
-        <is>
-          <t>Diagnostics</t>
-        </is>
-      </c>
-      <c r="C90" s="2" t="inlineStr">
-        <is>
-          <t>Log Level</t>
-        </is>
-      </c>
-      <c r="D90" s="2" t="inlineStr">
-        <is>
-          <t>Dropdown</t>
-        </is>
-      </c>
-      <c r="E90" s="2" t="inlineStr">
-        <is>
-          <t>Off | Basic | Verbose</t>
-        </is>
-      </c>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>Basic</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
-          <t>Logging detail</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="B91" s="2" t="inlineStr">
-        <is>
-          <t>Diagnostics</t>
-        </is>
-      </c>
-      <c r="C91" s="2" t="inlineStr">
-        <is>
-          <t>Imbue Update Interval</t>
-        </is>
-      </c>
-      <c r="D91" s="2" t="inlineStr">
-        <is>
-          <t>Dropdown</t>
-        </is>
-      </c>
-      <c r="E91" s="2" t="inlineStr">
-        <is>
-          <t>0.05s..1.00s</t>
-        </is>
-      </c>
-      <c r="F91" s="2" t="inlineStr">
-        <is>
-          <t>0.25s</t>
-        </is>
-      </c>
-      <c r="G91" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H91" s="2" t="inlineStr">
-        <is>
-          <t>Performance/response tradeoff</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="inlineStr">
-        <is>
-          <t>1001</t>
-        </is>
-      </c>
-      <c r="B92" s="2" t="inlineStr">
-        <is>
-          <t>Diagnostics</t>
-        </is>
-      </c>
-      <c r="C92" s="2" t="inlineStr">
-        <is>
-          <t>Enemy Rescan Interval</t>
-        </is>
-      </c>
-      <c r="D92" s="2" t="inlineStr">
-        <is>
-          <t>Dropdown</t>
-        </is>
-      </c>
-      <c r="E92" s="2" t="inlineStr">
-        <is>
-          <t>0.50s..5.00s</t>
-        </is>
-      </c>
-      <c r="F92" s="2" t="inlineStr">
-        <is>
-          <t>2.00s</t>
-        </is>
-      </c>
-      <c r="G92" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H92" s="2" t="inlineStr">
-        <is>
-          <t>Tracking refresh interval</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="inlineStr">
-        <is>
-          <t>1002</t>
-        </is>
-      </c>
-      <c r="B93" s="2" t="inlineStr">
-        <is>
-          <t>Diagnostics</t>
-        </is>
-      </c>
-      <c r="C93" s="2" t="inlineStr">
-        <is>
-          <t>Dump Factions</t>
-        </is>
-      </c>
-      <c r="D93" s="2" t="inlineStr">
-        <is>
-          <t>Button</t>
-        </is>
-      </c>
-      <c r="E93" s="2" t="inlineStr">
-        <is>
-          <t>False/True</t>
-        </is>
-      </c>
-      <c r="F93" s="2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="G93" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H93" s="2" t="inlineStr">
-        <is>
-          <t>One-shot debug action</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>999</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
@@ -4454,22 +4454,22 @@
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Dump Wave-Faction Map</t>
+          <t>Log Level</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>Button</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>False/True</t>
+          <t>Off | Basic | Diagnostics | Verbose</t>
         </is>
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Basic</t>
         </is>
       </c>
       <c r="G94" s="2" t="inlineStr">
@@ -4479,14 +4479,14 @@
       </c>
       <c r="H94" s="2" t="inlineStr">
         <is>
-          <t>One-shot debug action</t>
+          <t>Logging detail</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -4496,22 +4496,22 @@
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Dump State</t>
+          <t>Imbue Update Interval</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>Button</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>False/True</t>
+          <t>0.05s..1.00s</t>
         </is>
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0.25s</t>
         </is>
       </c>
       <c r="G95" s="2" t="inlineStr">
@@ -4521,54 +4521,264 @@
       </c>
       <c r="H95" s="2" t="inlineStr">
         <is>
-          <t>One-shot debug action</t>
+          <t>Performance/response tradeoff</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>Diagnostics</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>Enemy Rescan Interval</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>Dropdown</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>0.50s..5.00s</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>2.00s</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>Tracking refresh interval</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>Diagnostics</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>Dump Factions</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>False/True</t>
+        </is>
+      </c>
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H97" s="2" t="inlineStr">
+        <is>
+          <t>One-shot debug action</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>Diagnostics</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>Dump Wave-Faction Map</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>False/True</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H98" s="2" t="inlineStr">
+        <is>
+          <t>One-shot debug action</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>Diagnostics</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>Dump State</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>False/True</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>One-shot debug action</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
           <t>1005</t>
         </is>
       </c>
-      <c r="B96" s="2" t="inlineStr">
+      <c r="B100" s="2" t="inlineStr">
         <is>
           <t>Diagnostics</t>
         </is>
       </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>Dump Enemy Type Detection</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>Button</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>False/True</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H100" s="2" t="inlineStr">
+        <is>
+          <t>One-shot debug action</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>Diagnostics</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
         <is>
           <t>Force Reapply</t>
         </is>
       </c>
-      <c r="D96" s="2" t="inlineStr">
+      <c r="D101" s="2" t="inlineStr">
         <is>
           <t>Button</t>
         </is>
       </c>
-      <c r="E96" s="2" t="inlineStr">
+      <c r="E101" s="2" t="inlineStr">
         <is>
           <t>False/True</t>
         </is>
       </c>
-      <c r="F96" s="2" t="inlineStr">
+      <c r="F101" s="2" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="G96" s="2" t="inlineStr">
+      <c r="G101" s="2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="H96" s="2" t="inlineStr">
+      <c r="H101" s="2" t="inlineStr">
         <is>
           <t>One-shot debug action</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H96"/>
+  <autoFilter ref="A1:H101"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4579,7 +4789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4647,7 +4857,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Caster Enemies Eligible</t>
+          <t>Mage Eligible</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -4667,7 +4877,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>Runtime caster-type detection gate</t>
+          <t>Runtime pure mage detection gate</t>
         </is>
       </c>
     </row>
@@ -4684,7 +4894,7 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Non-Caster Enemies Eligible</t>
+          <t>Mage Bow Eligible</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -4704,155 +4914,155 @@
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>Runtime non-caster detection gate</t>
+          <t>Runtime mage-bow detection gate</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Combat Practice (Mixed Enemies)</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Combat</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>Combat Enabled</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>Faction Profile</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>Eligibility toggle controlled by Faction Profile Preset</t>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Enemy Type Eligibility</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Mage Melee Eligible</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Enemy Type Profile</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>Runtime mage-melee detection gate</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Combat Practice (Mixed Enemies)</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Combat</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Combat Imbue 1</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>Imbue</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>None means no imbue slot</t>
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Enemy Type Eligibility</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Bow Eligible</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Enemy Type Profile</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>Runtime non-caster bow detection gate</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>Combat Practice (Mixed Enemies)</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Combat</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Combat Chance 1</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>Chance</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>Per-faction totals normalize to &lt;=100%</t>
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Enemy Type Eligibility</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Melee Eligible</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Enemy Type Profile</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>Runtime non-caster melee detection gate</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>Combat Practice (Mixed Enemies)</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Combat</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Combat Strength 1</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>Strength</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>0..100 strength cap</t>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Enemy Type Eligibility</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Uncertain Enemy Type Fallback</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>Fallback behavior for uncertain enemy-type detection</t>
         </is>
       </c>
     </row>
@@ -4869,7 +5079,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>Combat Imbue 2</t>
+          <t>Combat Enabled</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -4879,17 +5089,17 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Faction Profile</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>None means no imbue slot</t>
+          <t>Eligibility toggle controlled by Faction Profile Preset</t>
         </is>
       </c>
     </row>
@@ -4906,7 +5116,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Combat Chance 2</t>
+          <t>Combat Imbue 1</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -4916,7 +5126,7 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -4926,7 +5136,7 @@
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>Per-faction totals normalize to &lt;=100%</t>
+          <t>None means no imbue slot</t>
         </is>
       </c>
     </row>
@@ -4943,7 +5153,7 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>Combat Strength 2</t>
+          <t>Combat Chance 1</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -4953,7 +5163,7 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>Strength</t>
+          <t>Chance</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
@@ -4963,7 +5173,7 @@
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>0..100 strength cap</t>
+          <t>Per-faction totals normalize to &lt;=100%</t>
         </is>
       </c>
     </row>
@@ -4980,7 +5190,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>Combat Imbue 3</t>
+          <t>Combat Strength 1</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -4990,7 +5200,7 @@
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Strength</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
@@ -5000,7 +5210,7 @@
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>None means no imbue slot</t>
+          <t>0..100 strength cap</t>
         </is>
       </c>
     </row>
@@ -5017,7 +5227,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>Combat Chance 3</t>
+          <t>Combat Imbue 2</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -5027,7 +5237,7 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
@@ -5037,7 +5247,7 @@
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>Per-faction totals normalize to &lt;=100%</t>
+          <t>None means no imbue slot</t>
         </is>
       </c>
     </row>
@@ -5054,173 +5264,173 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
+          <t>Combat Chance 2</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>Per-faction totals normalize to &lt;=100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Combat Practice (Mixed Enemies)</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Combat</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Combat Strength 2</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>Strength</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>0..100 strength cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Combat Practice (Mixed Enemies)</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Combat</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Combat Imbue 3</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>Imbue</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>None means no imbue slot</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Combat Practice (Mixed Enemies)</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Combat</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Combat Chance 3</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>Per-faction totals normalize to &lt;=100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Combat Practice (Mixed Enemies)</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Combat</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
           <t>Combat Strength 3</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>Strength</t>
         </is>
       </c>
-      <c r="F13" s="3" t="inlineStr">
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t>Indirect</t>
         </is>
       </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>0..100 strength cap</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>Outlaws (T0)</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>Outlaws</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>Outlaws Enabled</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>Faction Profile</t>
-        </is>
-      </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G14" s="4" t="inlineStr">
-        <is>
-          <t>Eligibility toggle controlled by Faction Profile Preset</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>Outlaws (T0)</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>Outlaws</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>Outlaws Imbue 1</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>Imbue</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G15" s="4" t="inlineStr">
-        <is>
-          <t>None means no imbue slot</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>Outlaws (T0)</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>Outlaws</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>Outlaws Chance 1</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>Chance</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G16" s="4" t="inlineStr">
-        <is>
-          <t>Per-faction totals normalize to &lt;=100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>Outlaws (T0)</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>Outlaws</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>Outlaws Strength 1</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>Strength</t>
-        </is>
-      </c>
-      <c r="F17" s="4" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="G17" s="3" t="inlineStr">
         <is>
           <t>0..100 strength cap</t>
         </is>
@@ -5239,7 +5449,7 @@
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Outlaws Imbue 2</t>
+          <t>Outlaws Enabled</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
@@ -5249,17 +5459,17 @@
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Faction Profile</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>None means no imbue slot</t>
+          <t>Eligibility toggle controlled by Faction Profile Preset</t>
         </is>
       </c>
     </row>
@@ -5276,7 +5486,7 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Outlaws Chance 2</t>
+          <t>Outlaws Imbue 1</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
@@ -5286,7 +5496,7 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
@@ -5296,7 +5506,7 @@
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>Per-faction totals normalize to &lt;=100%</t>
+          <t>None means no imbue slot</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5523,7 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Outlaws Strength 2</t>
+          <t>Outlaws Chance 1</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
@@ -5323,7 +5533,7 @@
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>Strength</t>
+          <t>Chance</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
@@ -5333,7 +5543,7 @@
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>0..100 strength cap</t>
+          <t>Per-faction totals normalize to &lt;=100%</t>
         </is>
       </c>
     </row>
@@ -5350,7 +5560,7 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Outlaws Imbue 3</t>
+          <t>Outlaws Strength 1</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
@@ -5360,7 +5570,7 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Strength</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
@@ -5370,7 +5580,7 @@
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>None means no imbue slot</t>
+          <t>0..100 strength cap</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5597,7 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>Outlaws Chance 3</t>
+          <t>Outlaws Imbue 2</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
@@ -5397,7 +5607,7 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
@@ -5407,7 +5617,7 @@
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>Per-faction totals normalize to &lt;=100%</t>
+          <t>None means no imbue slot</t>
         </is>
       </c>
     </row>
@@ -5424,173 +5634,173 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
+          <t>Outlaws Chance 2</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>Per-faction totals normalize to &lt;=100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>Outlaws (T0)</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>Outlaws</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Outlaws Strength 2</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>Strength</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>0..100 strength cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>Outlaws (T0)</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>Outlaws</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>Outlaws Imbue 3</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>Imbue</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t>None means no imbue slot</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>Outlaws (T0)</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Outlaws</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>Outlaws Chance 3</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G26" s="4" t="inlineStr">
+        <is>
+          <t>Per-faction totals normalize to &lt;=100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>Outlaws (T0)</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>Outlaws</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
           <t>Outlaws Strength 3</t>
         </is>
       </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>Strength</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F27" s="4" t="inlineStr">
         <is>
           <t>Indirect</t>
         </is>
       </c>
-      <c r="G23" s="4" t="inlineStr">
-        <is>
-          <t>0..100 strength cap</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="inlineStr">
-        <is>
-          <t>Wildfolk (T1)</t>
-        </is>
-      </c>
-      <c r="B24" s="5" t="inlineStr">
-        <is>
-          <t>Wildfolk</t>
-        </is>
-      </c>
-      <c r="C24" s="5" t="inlineStr">
-        <is>
-          <t>Wildfolk Enabled</t>
-        </is>
-      </c>
-      <c r="D24" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E24" s="5" t="inlineStr">
-        <is>
-          <t>Faction Profile</t>
-        </is>
-      </c>
-      <c r="F24" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G24" s="5" t="inlineStr">
-        <is>
-          <t>Eligibility toggle controlled by Faction Profile Preset</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="inlineStr">
-        <is>
-          <t>Wildfolk (T1)</t>
-        </is>
-      </c>
-      <c r="B25" s="5" t="inlineStr">
-        <is>
-          <t>Wildfolk</t>
-        </is>
-      </c>
-      <c r="C25" s="5" t="inlineStr">
-        <is>
-          <t>Wildfolk Imbue 1</t>
-        </is>
-      </c>
-      <c r="D25" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E25" s="5" t="inlineStr">
-        <is>
-          <t>Imbue</t>
-        </is>
-      </c>
-      <c r="F25" s="5" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G25" s="5" t="inlineStr">
-        <is>
-          <t>None means no imbue slot</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="inlineStr">
-        <is>
-          <t>Wildfolk (T1)</t>
-        </is>
-      </c>
-      <c r="B26" s="5" t="inlineStr">
-        <is>
-          <t>Wildfolk</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>Wildfolk Chance 1</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>Chance</t>
-        </is>
-      </c>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G26" s="5" t="inlineStr">
-        <is>
-          <t>Per-faction totals normalize to &lt;=100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="inlineStr">
-        <is>
-          <t>Wildfolk (T1)</t>
-        </is>
-      </c>
-      <c r="B27" s="5" t="inlineStr">
-        <is>
-          <t>Wildfolk</t>
-        </is>
-      </c>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>Wildfolk Strength 1</t>
-        </is>
-      </c>
-      <c r="D27" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E27" s="5" t="inlineStr">
-        <is>
-          <t>Strength</t>
-        </is>
-      </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G27" s="5" t="inlineStr">
+      <c r="G27" s="4" t="inlineStr">
         <is>
           <t>0..100 strength cap</t>
         </is>
@@ -5609,7 +5819,7 @@
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>Wildfolk Imbue 2</t>
+          <t>Wildfolk Enabled</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
@@ -5619,17 +5829,17 @@
       </c>
       <c r="E28" s="5" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Faction Profile</t>
         </is>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G28" s="5" t="inlineStr">
         <is>
-          <t>None means no imbue slot</t>
+          <t>Eligibility toggle controlled by Faction Profile Preset</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5856,7 @@
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>Wildfolk Chance 2</t>
+          <t>Wildfolk Imbue 1</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr">
@@ -5656,7 +5866,7 @@
       </c>
       <c r="E29" s="5" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="F29" s="5" t="inlineStr">
@@ -5666,7 +5876,7 @@
       </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
-          <t>Per-faction totals normalize to &lt;=100%</t>
+          <t>None means no imbue slot</t>
         </is>
       </c>
     </row>
@@ -5683,7 +5893,7 @@
       </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
-          <t>Wildfolk Strength 2</t>
+          <t>Wildfolk Chance 1</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
@@ -5693,7 +5903,7 @@
       </c>
       <c r="E30" s="5" t="inlineStr">
         <is>
-          <t>Strength</t>
+          <t>Chance</t>
         </is>
       </c>
       <c r="F30" s="5" t="inlineStr">
@@ -5703,7 +5913,7 @@
       </c>
       <c r="G30" s="5" t="inlineStr">
         <is>
-          <t>0..100 strength cap</t>
+          <t>Per-faction totals normalize to &lt;=100%</t>
         </is>
       </c>
     </row>
@@ -5720,7 +5930,7 @@
       </c>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>Wildfolk Imbue 3</t>
+          <t>Wildfolk Strength 1</t>
         </is>
       </c>
       <c r="D31" s="5" t="inlineStr">
@@ -5730,7 +5940,7 @@
       </c>
       <c r="E31" s="5" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Strength</t>
         </is>
       </c>
       <c r="F31" s="5" t="inlineStr">
@@ -5740,7 +5950,7 @@
       </c>
       <c r="G31" s="5" t="inlineStr">
         <is>
-          <t>None means no imbue slot</t>
+          <t>0..100 strength cap</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5967,7 @@
       </c>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>Wildfolk Chance 3</t>
+          <t>Wildfolk Imbue 2</t>
         </is>
       </c>
       <c r="D32" s="5" t="inlineStr">
@@ -5767,7 +5977,7 @@
       </c>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="F32" s="5" t="inlineStr">
@@ -5777,7 +5987,7 @@
       </c>
       <c r="G32" s="5" t="inlineStr">
         <is>
-          <t>Per-faction totals normalize to &lt;=100%</t>
+          <t>None means no imbue slot</t>
         </is>
       </c>
     </row>
@@ -5794,173 +6004,173 @@
       </c>
       <c r="C33" s="5" t="inlineStr">
         <is>
+          <t>Wildfolk Chance 2</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="F33" s="5" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G33" s="5" t="inlineStr">
+        <is>
+          <t>Per-faction totals normalize to &lt;=100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>Wildfolk (T1)</t>
+        </is>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>Wildfolk</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>Wildfolk Strength 2</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>Strength</t>
+        </is>
+      </c>
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G34" s="5" t="inlineStr">
+        <is>
+          <t>0..100 strength cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>Wildfolk (T1)</t>
+        </is>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>Wildfolk</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>Wildfolk Imbue 3</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>Imbue</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G35" s="5" t="inlineStr">
+        <is>
+          <t>None means no imbue slot</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>Wildfolk (T1)</t>
+        </is>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>Wildfolk</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>Wildfolk Chance 3</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G36" s="5" t="inlineStr">
+        <is>
+          <t>Per-faction totals normalize to &lt;=100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>Wildfolk (T1)</t>
+        </is>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>Wildfolk</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
           <t>Wildfolk Strength 3</t>
         </is>
       </c>
-      <c r="D33" s="5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E33" s="5" t="inlineStr">
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="inlineStr">
         <is>
           <t>Strength</t>
         </is>
       </c>
-      <c r="F33" s="5" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>Indirect</t>
         </is>
       </c>
-      <c r="G33" s="5" t="inlineStr">
-        <is>
-          <t>0..100 strength cap</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="6" t="inlineStr">
-        <is>
-          <t>Eraden Kingdom (T2)</t>
-        </is>
-      </c>
-      <c r="B34" s="6" t="inlineStr">
-        <is>
-          <t>Eraden</t>
-        </is>
-      </c>
-      <c r="C34" s="6" t="inlineStr">
-        <is>
-          <t>Eraden Enabled</t>
-        </is>
-      </c>
-      <c r="D34" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E34" s="6" t="inlineStr">
-        <is>
-          <t>Faction Profile</t>
-        </is>
-      </c>
-      <c r="F34" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G34" s="6" t="inlineStr">
-        <is>
-          <t>Eligibility toggle controlled by Faction Profile Preset</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="6" t="inlineStr">
-        <is>
-          <t>Eraden Kingdom (T2)</t>
-        </is>
-      </c>
-      <c r="B35" s="6" t="inlineStr">
-        <is>
-          <t>Eraden</t>
-        </is>
-      </c>
-      <c r="C35" s="6" t="inlineStr">
-        <is>
-          <t>Eraden Imbue 1</t>
-        </is>
-      </c>
-      <c r="D35" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E35" s="6" t="inlineStr">
-        <is>
-          <t>Imbue</t>
-        </is>
-      </c>
-      <c r="F35" s="6" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G35" s="6" t="inlineStr">
-        <is>
-          <t>None means no imbue slot</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="6" t="inlineStr">
-        <is>
-          <t>Eraden Kingdom (T2)</t>
-        </is>
-      </c>
-      <c r="B36" s="6" t="inlineStr">
-        <is>
-          <t>Eraden</t>
-        </is>
-      </c>
-      <c r="C36" s="6" t="inlineStr">
-        <is>
-          <t>Eraden Chance 1</t>
-        </is>
-      </c>
-      <c r="D36" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E36" s="6" t="inlineStr">
-        <is>
-          <t>Chance</t>
-        </is>
-      </c>
-      <c r="F36" s="6" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G36" s="6" t="inlineStr">
-        <is>
-          <t>Per-faction totals normalize to &lt;=100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="6" t="inlineStr">
-        <is>
-          <t>Eraden Kingdom (T2)</t>
-        </is>
-      </c>
-      <c r="B37" s="6" t="inlineStr">
-        <is>
-          <t>Eraden</t>
-        </is>
-      </c>
-      <c r="C37" s="6" t="inlineStr">
-        <is>
-          <t>Eraden Strength 1</t>
-        </is>
-      </c>
-      <c r="D37" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E37" s="6" t="inlineStr">
-        <is>
-          <t>Strength</t>
-        </is>
-      </c>
-      <c r="F37" s="6" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G37" s="6" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t>0..100 strength cap</t>
         </is>
@@ -5979,7 +6189,7 @@
       </c>
       <c r="C38" s="6" t="inlineStr">
         <is>
-          <t>Eraden Imbue 2</t>
+          <t>Eraden Enabled</t>
         </is>
       </c>
       <c r="D38" s="6" t="inlineStr">
@@ -5989,17 +6199,17 @@
       </c>
       <c r="E38" s="6" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Faction Profile</t>
         </is>
       </c>
       <c r="F38" s="6" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G38" s="6" t="inlineStr">
         <is>
-          <t>None means no imbue slot</t>
+          <t>Eligibility toggle controlled by Faction Profile Preset</t>
         </is>
       </c>
     </row>
@@ -6016,7 +6226,7 @@
       </c>
       <c r="C39" s="6" t="inlineStr">
         <is>
-          <t>Eraden Chance 2</t>
+          <t>Eraden Imbue 1</t>
         </is>
       </c>
       <c r="D39" s="6" t="inlineStr">
@@ -6026,7 +6236,7 @@
       </c>
       <c r="E39" s="6" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="F39" s="6" t="inlineStr">
@@ -6036,7 +6246,7 @@
       </c>
       <c r="G39" s="6" t="inlineStr">
         <is>
-          <t>Per-faction totals normalize to &lt;=100%</t>
+          <t>None means no imbue slot</t>
         </is>
       </c>
     </row>
@@ -6053,7 +6263,7 @@
       </c>
       <c r="C40" s="6" t="inlineStr">
         <is>
-          <t>Eraden Strength 2</t>
+          <t>Eraden Chance 1</t>
         </is>
       </c>
       <c r="D40" s="6" t="inlineStr">
@@ -6063,7 +6273,7 @@
       </c>
       <c r="E40" s="6" t="inlineStr">
         <is>
-          <t>Strength</t>
+          <t>Chance</t>
         </is>
       </c>
       <c r="F40" s="6" t="inlineStr">
@@ -6073,7 +6283,7 @@
       </c>
       <c r="G40" s="6" t="inlineStr">
         <is>
-          <t>0..100 strength cap</t>
+          <t>Per-faction totals normalize to &lt;=100%</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6300,7 @@
       </c>
       <c r="C41" s="6" t="inlineStr">
         <is>
-          <t>Eraden Imbue 3</t>
+          <t>Eraden Strength 1</t>
         </is>
       </c>
       <c r="D41" s="6" t="inlineStr">
@@ -6100,7 +6310,7 @@
       </c>
       <c r="E41" s="6" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Strength</t>
         </is>
       </c>
       <c r="F41" s="6" t="inlineStr">
@@ -6110,7 +6320,7 @@
       </c>
       <c r="G41" s="6" t="inlineStr">
         <is>
-          <t>None means no imbue slot</t>
+          <t>0..100 strength cap</t>
         </is>
       </c>
     </row>
@@ -6127,7 +6337,7 @@
       </c>
       <c r="C42" s="6" t="inlineStr">
         <is>
-          <t>Eraden Chance 3</t>
+          <t>Eraden Imbue 2</t>
         </is>
       </c>
       <c r="D42" s="6" t="inlineStr">
@@ -6137,7 +6347,7 @@
       </c>
       <c r="E42" s="6" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="F42" s="6" t="inlineStr">
@@ -6147,7 +6357,7 @@
       </c>
       <c r="G42" s="6" t="inlineStr">
         <is>
-          <t>Per-faction totals normalize to &lt;=100%</t>
+          <t>None means no imbue slot</t>
         </is>
       </c>
     </row>
@@ -6164,173 +6374,173 @@
       </c>
       <c r="C43" s="6" t="inlineStr">
         <is>
+          <t>Eraden Chance 2</t>
+        </is>
+      </c>
+      <c r="D43" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E43" s="6" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="F43" s="6" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G43" s="6" t="inlineStr">
+        <is>
+          <t>Per-faction totals normalize to &lt;=100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="inlineStr">
+        <is>
+          <t>Eraden Kingdom (T2)</t>
+        </is>
+      </c>
+      <c r="B44" s="6" t="inlineStr">
+        <is>
+          <t>Eraden</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="inlineStr">
+        <is>
+          <t>Eraden Strength 2</t>
+        </is>
+      </c>
+      <c r="D44" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>Strength</t>
+        </is>
+      </c>
+      <c r="F44" s="6" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G44" s="6" t="inlineStr">
+        <is>
+          <t>0..100 strength cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>Eraden Kingdom (T2)</t>
+        </is>
+      </c>
+      <c r="B45" s="6" t="inlineStr">
+        <is>
+          <t>Eraden</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="inlineStr">
+        <is>
+          <t>Eraden Imbue 3</t>
+        </is>
+      </c>
+      <c r="D45" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E45" s="6" t="inlineStr">
+        <is>
+          <t>Imbue</t>
+        </is>
+      </c>
+      <c r="F45" s="6" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G45" s="6" t="inlineStr">
+        <is>
+          <t>None means no imbue slot</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>Eraden Kingdom (T2)</t>
+        </is>
+      </c>
+      <c r="B46" s="6" t="inlineStr">
+        <is>
+          <t>Eraden</t>
+        </is>
+      </c>
+      <c r="C46" s="6" t="inlineStr">
+        <is>
+          <t>Eraden Chance 3</t>
+        </is>
+      </c>
+      <c r="D46" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E46" s="6" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="F46" s="6" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G46" s="6" t="inlineStr">
+        <is>
+          <t>Per-faction totals normalize to &lt;=100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>Eraden Kingdom (T2)</t>
+        </is>
+      </c>
+      <c r="B47" s="6" t="inlineStr">
+        <is>
+          <t>Eraden</t>
+        </is>
+      </c>
+      <c r="C47" s="6" t="inlineStr">
+        <is>
           <t>Eraden Strength 3</t>
         </is>
       </c>
-      <c r="D43" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E43" s="6" t="inlineStr">
+      <c r="D47" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E47" s="6" t="inlineStr">
         <is>
           <t>Strength</t>
         </is>
       </c>
-      <c r="F43" s="6" t="inlineStr">
+      <c r="F47" s="6" t="inlineStr">
         <is>
           <t>Indirect</t>
         </is>
       </c>
-      <c r="G43" s="6" t="inlineStr">
-        <is>
-          <t>0..100 strength cap</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="7" t="inlineStr">
-        <is>
-          <t>The Eye (T3)</t>
-        </is>
-      </c>
-      <c r="B44" s="7" t="inlineStr">
-        <is>
-          <t>Eye</t>
-        </is>
-      </c>
-      <c r="C44" s="7" t="inlineStr">
-        <is>
-          <t>Eye Enabled</t>
-        </is>
-      </c>
-      <c r="D44" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E44" s="7" t="inlineStr">
-        <is>
-          <t>Faction Profile</t>
-        </is>
-      </c>
-      <c r="F44" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G44" s="7" t="inlineStr">
-        <is>
-          <t>Eligibility toggle controlled by Faction Profile Preset</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="7" t="inlineStr">
-        <is>
-          <t>The Eye (T3)</t>
-        </is>
-      </c>
-      <c r="B45" s="7" t="inlineStr">
-        <is>
-          <t>Eye</t>
-        </is>
-      </c>
-      <c r="C45" s="7" t="inlineStr">
-        <is>
-          <t>Eye Imbue 1</t>
-        </is>
-      </c>
-      <c r="D45" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E45" s="7" t="inlineStr">
-        <is>
-          <t>Imbue</t>
-        </is>
-      </c>
-      <c r="F45" s="7" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G45" s="7" t="inlineStr">
-        <is>
-          <t>None means no imbue slot</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="7" t="inlineStr">
-        <is>
-          <t>The Eye (T3)</t>
-        </is>
-      </c>
-      <c r="B46" s="7" t="inlineStr">
-        <is>
-          <t>Eye</t>
-        </is>
-      </c>
-      <c r="C46" s="7" t="inlineStr">
-        <is>
-          <t>Eye Chance 1</t>
-        </is>
-      </c>
-      <c r="D46" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E46" s="7" t="inlineStr">
-        <is>
-          <t>Chance</t>
-        </is>
-      </c>
-      <c r="F46" s="7" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G46" s="7" t="inlineStr">
-        <is>
-          <t>Per-faction totals normalize to &lt;=100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="7" t="inlineStr">
-        <is>
-          <t>The Eye (T3)</t>
-        </is>
-      </c>
-      <c r="B47" s="7" t="inlineStr">
-        <is>
-          <t>Eye</t>
-        </is>
-      </c>
-      <c r="C47" s="7" t="inlineStr">
-        <is>
-          <t>Eye Strength 1</t>
-        </is>
-      </c>
-      <c r="D47" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E47" s="7" t="inlineStr">
-        <is>
-          <t>Strength</t>
-        </is>
-      </c>
-      <c r="F47" s="7" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G47" s="7" t="inlineStr">
+      <c r="G47" s="6" t="inlineStr">
         <is>
           <t>0..100 strength cap</t>
         </is>
@@ -6349,7 +6559,7 @@
       </c>
       <c r="C48" s="7" t="inlineStr">
         <is>
-          <t>Eye Imbue 2</t>
+          <t>Eye Enabled</t>
         </is>
       </c>
       <c r="D48" s="7" t="inlineStr">
@@ -6359,17 +6569,17 @@
       </c>
       <c r="E48" s="7" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Faction Profile</t>
         </is>
       </c>
       <c r="F48" s="7" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G48" s="7" t="inlineStr">
         <is>
-          <t>None means no imbue slot</t>
+          <t>Eligibility toggle controlled by Faction Profile Preset</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6596,7 @@
       </c>
       <c r="C49" s="7" t="inlineStr">
         <is>
-          <t>Eye Chance 2</t>
+          <t>Eye Imbue 1</t>
         </is>
       </c>
       <c r="D49" s="7" t="inlineStr">
@@ -6396,7 +6606,7 @@
       </c>
       <c r="E49" s="7" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="F49" s="7" t="inlineStr">
@@ -6406,7 +6616,7 @@
       </c>
       <c r="G49" s="7" t="inlineStr">
         <is>
-          <t>Per-faction totals normalize to &lt;=100%</t>
+          <t>None means no imbue slot</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6633,7 @@
       </c>
       <c r="C50" s="7" t="inlineStr">
         <is>
-          <t>Eye Strength 2</t>
+          <t>Eye Chance 1</t>
         </is>
       </c>
       <c r="D50" s="7" t="inlineStr">
@@ -6433,7 +6643,7 @@
       </c>
       <c r="E50" s="7" t="inlineStr">
         <is>
-          <t>Strength</t>
+          <t>Chance</t>
         </is>
       </c>
       <c r="F50" s="7" t="inlineStr">
@@ -6443,7 +6653,7 @@
       </c>
       <c r="G50" s="7" t="inlineStr">
         <is>
-          <t>0..100 strength cap</t>
+          <t>Per-faction totals normalize to &lt;=100%</t>
         </is>
       </c>
     </row>
@@ -6460,7 +6670,7 @@
       </c>
       <c r="C51" s="7" t="inlineStr">
         <is>
-          <t>Eye Imbue 3</t>
+          <t>Eye Strength 1</t>
         </is>
       </c>
       <c r="D51" s="7" t="inlineStr">
@@ -6470,7 +6680,7 @@
       </c>
       <c r="E51" s="7" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Strength</t>
         </is>
       </c>
       <c r="F51" s="7" t="inlineStr">
@@ -6480,7 +6690,7 @@
       </c>
       <c r="G51" s="7" t="inlineStr">
         <is>
-          <t>None means no imbue slot</t>
+          <t>0..100 strength cap</t>
         </is>
       </c>
     </row>
@@ -6497,7 +6707,7 @@
       </c>
       <c r="C52" s="7" t="inlineStr">
         <is>
-          <t>Eye Chance 3</t>
+          <t>Eye Imbue 2</t>
         </is>
       </c>
       <c r="D52" s="7" t="inlineStr">
@@ -6507,7 +6717,7 @@
       </c>
       <c r="E52" s="7" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="F52" s="7" t="inlineStr">
@@ -6517,7 +6727,7 @@
       </c>
       <c r="G52" s="7" t="inlineStr">
         <is>
-          <t>Per-faction totals normalize to &lt;=100%</t>
+          <t>None means no imbue slot</t>
         </is>
       </c>
     </row>
@@ -6534,173 +6744,173 @@
       </c>
       <c r="C53" s="7" t="inlineStr">
         <is>
+          <t>Eye Chance 2</t>
+        </is>
+      </c>
+      <c r="D53" s="7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E53" s="7" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="F53" s="7" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G53" s="7" t="inlineStr">
+        <is>
+          <t>Per-faction totals normalize to &lt;=100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="inlineStr">
+        <is>
+          <t>The Eye (T3)</t>
+        </is>
+      </c>
+      <c r="B54" s="7" t="inlineStr">
+        <is>
+          <t>Eye</t>
+        </is>
+      </c>
+      <c r="C54" s="7" t="inlineStr">
+        <is>
+          <t>Eye Strength 2</t>
+        </is>
+      </c>
+      <c r="D54" s="7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E54" s="7" t="inlineStr">
+        <is>
+          <t>Strength</t>
+        </is>
+      </c>
+      <c r="F54" s="7" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G54" s="7" t="inlineStr">
+        <is>
+          <t>0..100 strength cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="inlineStr">
+        <is>
+          <t>The Eye (T3)</t>
+        </is>
+      </c>
+      <c r="B55" s="7" t="inlineStr">
+        <is>
+          <t>Eye</t>
+        </is>
+      </c>
+      <c r="C55" s="7" t="inlineStr">
+        <is>
+          <t>Eye Imbue 3</t>
+        </is>
+      </c>
+      <c r="D55" s="7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E55" s="7" t="inlineStr">
+        <is>
+          <t>Imbue</t>
+        </is>
+      </c>
+      <c r="F55" s="7" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G55" s="7" t="inlineStr">
+        <is>
+          <t>None means no imbue slot</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="inlineStr">
+        <is>
+          <t>The Eye (T3)</t>
+        </is>
+      </c>
+      <c r="B56" s="7" t="inlineStr">
+        <is>
+          <t>Eye</t>
+        </is>
+      </c>
+      <c r="C56" s="7" t="inlineStr">
+        <is>
+          <t>Eye Chance 3</t>
+        </is>
+      </c>
+      <c r="D56" s="7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E56" s="7" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="F56" s="7" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G56" s="7" t="inlineStr">
+        <is>
+          <t>Per-faction totals normalize to &lt;=100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="inlineStr">
+        <is>
+          <t>The Eye (T3)</t>
+        </is>
+      </c>
+      <c r="B57" s="7" t="inlineStr">
+        <is>
+          <t>Eye</t>
+        </is>
+      </c>
+      <c r="C57" s="7" t="inlineStr">
+        <is>
           <t>Eye Strength 3</t>
         </is>
       </c>
-      <c r="D53" s="7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E53" s="7" t="inlineStr">
+      <c r="D57" s="7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E57" s="7" t="inlineStr">
         <is>
           <t>Strength</t>
         </is>
       </c>
-      <c r="F53" s="7" t="inlineStr">
+      <c r="F57" s="7" t="inlineStr">
         <is>
           <t>Indirect</t>
         </is>
       </c>
-      <c r="G53" s="7" t="inlineStr">
-        <is>
-          <t>0..100 strength cap</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="8" t="inlineStr">
-        <is>
-          <t>Rakta</t>
-        </is>
-      </c>
-      <c r="B54" s="8" t="inlineStr">
-        <is>
-          <t>Rakta</t>
-        </is>
-      </c>
-      <c r="C54" s="8" t="inlineStr">
-        <is>
-          <t>Rakta Enabled</t>
-        </is>
-      </c>
-      <c r="D54" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E54" s="8" t="inlineStr">
-        <is>
-          <t>Faction Profile</t>
-        </is>
-      </c>
-      <c r="F54" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G54" s="8" t="inlineStr">
-        <is>
-          <t>Eligibility toggle controlled by Faction Profile Preset</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="8" t="inlineStr">
-        <is>
-          <t>Rakta</t>
-        </is>
-      </c>
-      <c r="B55" s="8" t="inlineStr">
-        <is>
-          <t>Rakta</t>
-        </is>
-      </c>
-      <c r="C55" s="8" t="inlineStr">
-        <is>
-          <t>Rakta Imbue 1</t>
-        </is>
-      </c>
-      <c r="D55" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E55" s="8" t="inlineStr">
-        <is>
-          <t>Imbue</t>
-        </is>
-      </c>
-      <c r="F55" s="8" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G55" s="8" t="inlineStr">
-        <is>
-          <t>None means no imbue slot</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="8" t="inlineStr">
-        <is>
-          <t>Rakta</t>
-        </is>
-      </c>
-      <c r="B56" s="8" t="inlineStr">
-        <is>
-          <t>Rakta</t>
-        </is>
-      </c>
-      <c r="C56" s="8" t="inlineStr">
-        <is>
-          <t>Rakta Chance 1</t>
-        </is>
-      </c>
-      <c r="D56" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E56" s="8" t="inlineStr">
-        <is>
-          <t>Chance</t>
-        </is>
-      </c>
-      <c r="F56" s="8" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G56" s="8" t="inlineStr">
-        <is>
-          <t>Per-faction totals normalize to &lt;=100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="8" t="inlineStr">
-        <is>
-          <t>Rakta</t>
-        </is>
-      </c>
-      <c r="B57" s="8" t="inlineStr">
-        <is>
-          <t>Rakta</t>
-        </is>
-      </c>
-      <c r="C57" s="8" t="inlineStr">
-        <is>
-          <t>Rakta Strength 1</t>
-        </is>
-      </c>
-      <c r="D57" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E57" s="8" t="inlineStr">
-        <is>
-          <t>Strength</t>
-        </is>
-      </c>
-      <c r="F57" s="8" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G57" s="8" t="inlineStr">
+      <c r="G57" s="7" t="inlineStr">
         <is>
           <t>0..100 strength cap</t>
         </is>
@@ -6719,7 +6929,7 @@
       </c>
       <c r="C58" s="8" t="inlineStr">
         <is>
-          <t>Rakta Imbue 2</t>
+          <t>Rakta Enabled</t>
         </is>
       </c>
       <c r="D58" s="8" t="inlineStr">
@@ -6729,17 +6939,17 @@
       </c>
       <c r="E58" s="8" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Faction Profile</t>
         </is>
       </c>
       <c r="F58" s="8" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G58" s="8" t="inlineStr">
         <is>
-          <t>None means no imbue slot</t>
+          <t>Eligibility toggle controlled by Faction Profile Preset</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6966,7 @@
       </c>
       <c r="C59" s="8" t="inlineStr">
         <is>
-          <t>Rakta Chance 2</t>
+          <t>Rakta Imbue 1</t>
         </is>
       </c>
       <c r="D59" s="8" t="inlineStr">
@@ -6766,7 +6976,7 @@
       </c>
       <c r="E59" s="8" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="F59" s="8" t="inlineStr">
@@ -6776,7 +6986,7 @@
       </c>
       <c r="G59" s="8" t="inlineStr">
         <is>
-          <t>Per-faction totals normalize to &lt;=100%</t>
+          <t>None means no imbue slot</t>
         </is>
       </c>
     </row>
@@ -6793,7 +7003,7 @@
       </c>
       <c r="C60" s="8" t="inlineStr">
         <is>
-          <t>Rakta Strength 2</t>
+          <t>Rakta Chance 1</t>
         </is>
       </c>
       <c r="D60" s="8" t="inlineStr">
@@ -6803,7 +7013,7 @@
       </c>
       <c r="E60" s="8" t="inlineStr">
         <is>
-          <t>Strength</t>
+          <t>Chance</t>
         </is>
       </c>
       <c r="F60" s="8" t="inlineStr">
@@ -6813,7 +7023,7 @@
       </c>
       <c r="G60" s="8" t="inlineStr">
         <is>
-          <t>0..100 strength cap</t>
+          <t>Per-faction totals normalize to &lt;=100%</t>
         </is>
       </c>
     </row>
@@ -6830,7 +7040,7 @@
       </c>
       <c r="C61" s="8" t="inlineStr">
         <is>
-          <t>Rakta Imbue 3</t>
+          <t>Rakta Strength 1</t>
         </is>
       </c>
       <c r="D61" s="8" t="inlineStr">
@@ -6840,7 +7050,7 @@
       </c>
       <c r="E61" s="8" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Strength</t>
         </is>
       </c>
       <c r="F61" s="8" t="inlineStr">
@@ -6850,7 +7060,7 @@
       </c>
       <c r="G61" s="8" t="inlineStr">
         <is>
-          <t>None means no imbue slot</t>
+          <t>0..100 strength cap</t>
         </is>
       </c>
     </row>
@@ -6867,7 +7077,7 @@
       </c>
       <c r="C62" s="8" t="inlineStr">
         <is>
-          <t>Rakta Chance 3</t>
+          <t>Rakta Imbue 2</t>
         </is>
       </c>
       <c r="D62" s="8" t="inlineStr">
@@ -6877,7 +7087,7 @@
       </c>
       <c r="E62" s="8" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="F62" s="8" t="inlineStr">
@@ -6887,7 +7097,7 @@
       </c>
       <c r="G62" s="8" t="inlineStr">
         <is>
-          <t>Per-faction totals normalize to &lt;=100%</t>
+          <t>None means no imbue slot</t>
         </is>
       </c>
     </row>
@@ -6904,173 +7114,173 @@
       </c>
       <c r="C63" s="8" t="inlineStr">
         <is>
+          <t>Rakta Chance 2</t>
+        </is>
+      </c>
+      <c r="D63" s="8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="F63" s="8" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>Per-faction totals normalize to &lt;=100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="8" t="inlineStr">
+        <is>
+          <t>Rakta</t>
+        </is>
+      </c>
+      <c r="B64" s="8" t="inlineStr">
+        <is>
+          <t>Rakta</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>Rakta Strength 2</t>
+        </is>
+      </c>
+      <c r="D64" s="8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>Strength</t>
+        </is>
+      </c>
+      <c r="F64" s="8" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>0..100 strength cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="8" t="inlineStr">
+        <is>
+          <t>Rakta</t>
+        </is>
+      </c>
+      <c r="B65" s="8" t="inlineStr">
+        <is>
+          <t>Rakta</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>Rakta Imbue 3</t>
+        </is>
+      </c>
+      <c r="D65" s="8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>Imbue</t>
+        </is>
+      </c>
+      <c r="F65" s="8" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>None means no imbue slot</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="8" t="inlineStr">
+        <is>
+          <t>Rakta</t>
+        </is>
+      </c>
+      <c r="B66" s="8" t="inlineStr">
+        <is>
+          <t>Rakta</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>Rakta Chance 3</t>
+        </is>
+      </c>
+      <c r="D66" s="8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="F66" s="8" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>Per-faction totals normalize to &lt;=100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="8" t="inlineStr">
+        <is>
+          <t>Rakta</t>
+        </is>
+      </c>
+      <c r="B67" s="8" t="inlineStr">
+        <is>
+          <t>Rakta</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
+        <is>
           <t>Rakta Strength 3</t>
         </is>
       </c>
-      <c r="D63" s="8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E63" s="8" t="inlineStr">
+      <c r="D67" s="8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
         <is>
           <t>Strength</t>
         </is>
       </c>
-      <c r="F63" s="8" t="inlineStr">
+      <c r="F67" s="8" t="inlineStr">
         <is>
           <t>Indirect</t>
         </is>
       </c>
-      <c r="G63" s="8" t="inlineStr">
-        <is>
-          <t>0..100 strength cap</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="9" t="inlineStr">
-        <is>
-          <t>Special / Rogue</t>
-        </is>
-      </c>
-      <c r="B64" s="9" t="inlineStr">
-        <is>
-          <t>Special</t>
-        </is>
-      </c>
-      <c r="C64" s="9" t="inlineStr">
-        <is>
-          <t>Special Enabled</t>
-        </is>
-      </c>
-      <c r="D64" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E64" s="9" t="inlineStr">
-        <is>
-          <t>Faction Profile</t>
-        </is>
-      </c>
-      <c r="F64" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G64" s="9" t="inlineStr">
-        <is>
-          <t>Eligibility toggle controlled by Faction Profile Preset</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="9" t="inlineStr">
-        <is>
-          <t>Special / Rogue</t>
-        </is>
-      </c>
-      <c r="B65" s="9" t="inlineStr">
-        <is>
-          <t>Special</t>
-        </is>
-      </c>
-      <c r="C65" s="9" t="inlineStr">
-        <is>
-          <t>Special Imbue 1</t>
-        </is>
-      </c>
-      <c r="D65" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E65" s="9" t="inlineStr">
-        <is>
-          <t>Imbue</t>
-        </is>
-      </c>
-      <c r="F65" s="9" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G65" s="9" t="inlineStr">
-        <is>
-          <t>None means no imbue slot</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="9" t="inlineStr">
-        <is>
-          <t>Special / Rogue</t>
-        </is>
-      </c>
-      <c r="B66" s="9" t="inlineStr">
-        <is>
-          <t>Special</t>
-        </is>
-      </c>
-      <c r="C66" s="9" t="inlineStr">
-        <is>
-          <t>Special Chance 1</t>
-        </is>
-      </c>
-      <c r="D66" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E66" s="9" t="inlineStr">
-        <is>
-          <t>Chance</t>
-        </is>
-      </c>
-      <c r="F66" s="9" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G66" s="9" t="inlineStr">
-        <is>
-          <t>Per-faction totals normalize to &lt;=100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="9" t="inlineStr">
-        <is>
-          <t>Special / Rogue</t>
-        </is>
-      </c>
-      <c r="B67" s="9" t="inlineStr">
-        <is>
-          <t>Special</t>
-        </is>
-      </c>
-      <c r="C67" s="9" t="inlineStr">
-        <is>
-          <t>Special Strength 1</t>
-        </is>
-      </c>
-      <c r="D67" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E67" s="9" t="inlineStr">
-        <is>
-          <t>Strength</t>
-        </is>
-      </c>
-      <c r="F67" s="9" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G67" s="9" t="inlineStr">
+      <c r="G67" s="8" t="inlineStr">
         <is>
           <t>0..100 strength cap</t>
         </is>
@@ -7089,7 +7299,7 @@
       </c>
       <c r="C68" s="9" t="inlineStr">
         <is>
-          <t>Special Imbue 2</t>
+          <t>Special Enabled</t>
         </is>
       </c>
       <c r="D68" s="9" t="inlineStr">
@@ -7099,17 +7309,17 @@
       </c>
       <c r="E68" s="9" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Faction Profile</t>
         </is>
       </c>
       <c r="F68" s="9" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G68" s="9" t="inlineStr">
         <is>
-          <t>None means no imbue slot</t>
+          <t>Eligibility toggle controlled by Faction Profile Preset</t>
         </is>
       </c>
     </row>
@@ -7126,7 +7336,7 @@
       </c>
       <c r="C69" s="9" t="inlineStr">
         <is>
-          <t>Special Chance 2</t>
+          <t>Special Imbue 1</t>
         </is>
       </c>
       <c r="D69" s="9" t="inlineStr">
@@ -7136,7 +7346,7 @@
       </c>
       <c r="E69" s="9" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="F69" s="9" t="inlineStr">
@@ -7146,7 +7356,7 @@
       </c>
       <c r="G69" s="9" t="inlineStr">
         <is>
-          <t>Per-faction totals normalize to &lt;=100%</t>
+          <t>None means no imbue slot</t>
         </is>
       </c>
     </row>
@@ -7163,7 +7373,7 @@
       </c>
       <c r="C70" s="9" t="inlineStr">
         <is>
-          <t>Special Strength 2</t>
+          <t>Special Chance 1</t>
         </is>
       </c>
       <c r="D70" s="9" t="inlineStr">
@@ -7173,7 +7383,7 @@
       </c>
       <c r="E70" s="9" t="inlineStr">
         <is>
-          <t>Strength</t>
+          <t>Chance</t>
         </is>
       </c>
       <c r="F70" s="9" t="inlineStr">
@@ -7183,7 +7393,7 @@
       </c>
       <c r="G70" s="9" t="inlineStr">
         <is>
-          <t>0..100 strength cap</t>
+          <t>Per-faction totals normalize to &lt;=100%</t>
         </is>
       </c>
     </row>
@@ -7200,7 +7410,7 @@
       </c>
       <c r="C71" s="9" t="inlineStr">
         <is>
-          <t>Special Imbue 3</t>
+          <t>Special Strength 1</t>
         </is>
       </c>
       <c r="D71" s="9" t="inlineStr">
@@ -7210,7 +7420,7 @@
       </c>
       <c r="E71" s="9" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Strength</t>
         </is>
       </c>
       <c r="F71" s="9" t="inlineStr">
@@ -7220,7 +7430,7 @@
       </c>
       <c r="G71" s="9" t="inlineStr">
         <is>
-          <t>None means no imbue slot</t>
+          <t>0..100 strength cap</t>
         </is>
       </c>
     </row>
@@ -7237,7 +7447,7 @@
       </c>
       <c r="C72" s="9" t="inlineStr">
         <is>
-          <t>Special Chance 3</t>
+          <t>Special Imbue 2</t>
         </is>
       </c>
       <c r="D72" s="9" t="inlineStr">
@@ -7247,7 +7457,7 @@
       </c>
       <c r="E72" s="9" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="F72" s="9" t="inlineStr">
@@ -7257,7 +7467,7 @@
       </c>
       <c r="G72" s="9" t="inlineStr">
         <is>
-          <t>Per-faction totals normalize to &lt;=100%</t>
+          <t>None means no imbue slot</t>
         </is>
       </c>
     </row>
@@ -7274,173 +7484,173 @@
       </c>
       <c r="C73" s="9" t="inlineStr">
         <is>
+          <t>Special Chance 2</t>
+        </is>
+      </c>
+      <c r="D73" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E73" s="9" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="F73" s="9" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G73" s="9" t="inlineStr">
+        <is>
+          <t>Per-faction totals normalize to &lt;=100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="inlineStr">
+        <is>
+          <t>Special / Rogue</t>
+        </is>
+      </c>
+      <c r="B74" s="9" t="inlineStr">
+        <is>
+          <t>Special</t>
+        </is>
+      </c>
+      <c r="C74" s="9" t="inlineStr">
+        <is>
+          <t>Special Strength 2</t>
+        </is>
+      </c>
+      <c r="D74" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E74" s="9" t="inlineStr">
+        <is>
+          <t>Strength</t>
+        </is>
+      </c>
+      <c r="F74" s="9" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G74" s="9" t="inlineStr">
+        <is>
+          <t>0..100 strength cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="inlineStr">
+        <is>
+          <t>Special / Rogue</t>
+        </is>
+      </c>
+      <c r="B75" s="9" t="inlineStr">
+        <is>
+          <t>Special</t>
+        </is>
+      </c>
+      <c r="C75" s="9" t="inlineStr">
+        <is>
+          <t>Special Imbue 3</t>
+        </is>
+      </c>
+      <c r="D75" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E75" s="9" t="inlineStr">
+        <is>
+          <t>Imbue</t>
+        </is>
+      </c>
+      <c r="F75" s="9" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G75" s="9" t="inlineStr">
+        <is>
+          <t>None means no imbue slot</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="inlineStr">
+        <is>
+          <t>Special / Rogue</t>
+        </is>
+      </c>
+      <c r="B76" s="9" t="inlineStr">
+        <is>
+          <t>Special</t>
+        </is>
+      </c>
+      <c r="C76" s="9" t="inlineStr">
+        <is>
+          <t>Special Chance 3</t>
+        </is>
+      </c>
+      <c r="D76" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E76" s="9" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="F76" s="9" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G76" s="9" t="inlineStr">
+        <is>
+          <t>Per-faction totals normalize to &lt;=100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="inlineStr">
+        <is>
+          <t>Special / Rogue</t>
+        </is>
+      </c>
+      <c r="B77" s="9" t="inlineStr">
+        <is>
+          <t>Special</t>
+        </is>
+      </c>
+      <c r="C77" s="9" t="inlineStr">
+        <is>
           <t>Special Strength 3</t>
         </is>
       </c>
-      <c r="D73" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E73" s="9" t="inlineStr">
+      <c r="D77" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E77" s="9" t="inlineStr">
         <is>
           <t>Strength</t>
         </is>
       </c>
-      <c r="F73" s="9" t="inlineStr">
+      <c r="F77" s="9" t="inlineStr">
         <is>
           <t>Indirect</t>
         </is>
       </c>
-      <c r="G73" s="9" t="inlineStr">
-        <is>
-          <t>0..100 strength cap</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="10" t="inlineStr">
-        <is>
-          <t>Fallback (Any Enemy)</t>
-        </is>
-      </c>
-      <c r="B74" s="10" t="inlineStr">
-        <is>
-          <t>Fallback</t>
-        </is>
-      </c>
-      <c r="C74" s="10" t="inlineStr">
-        <is>
-          <t>Fallback Enabled</t>
-        </is>
-      </c>
-      <c r="D74" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E74" s="10" t="inlineStr">
-        <is>
-          <t>Faction Profile</t>
-        </is>
-      </c>
-      <c r="F74" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G74" s="10" t="inlineStr">
-        <is>
-          <t>Eligibility toggle controlled by Faction Profile Preset</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="10" t="inlineStr">
-        <is>
-          <t>Fallback (Any Enemy)</t>
-        </is>
-      </c>
-      <c r="B75" s="10" t="inlineStr">
-        <is>
-          <t>Fallback</t>
-        </is>
-      </c>
-      <c r="C75" s="10" t="inlineStr">
-        <is>
-          <t>Fallback Imbue 1</t>
-        </is>
-      </c>
-      <c r="D75" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E75" s="10" t="inlineStr">
-        <is>
-          <t>Imbue</t>
-        </is>
-      </c>
-      <c r="F75" s="10" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G75" s="10" t="inlineStr">
-        <is>
-          <t>None means no imbue slot</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="10" t="inlineStr">
-        <is>
-          <t>Fallback (Any Enemy)</t>
-        </is>
-      </c>
-      <c r="B76" s="10" t="inlineStr">
-        <is>
-          <t>Fallback</t>
-        </is>
-      </c>
-      <c r="C76" s="10" t="inlineStr">
-        <is>
-          <t>Fallback Chance 1</t>
-        </is>
-      </c>
-      <c r="D76" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E76" s="10" t="inlineStr">
-        <is>
-          <t>Chance</t>
-        </is>
-      </c>
-      <c r="F76" s="10" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G76" s="10" t="inlineStr">
-        <is>
-          <t>Per-faction totals normalize to &lt;=100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="10" t="inlineStr">
-        <is>
-          <t>Fallback (Any Enemy)</t>
-        </is>
-      </c>
-      <c r="B77" s="10" t="inlineStr">
-        <is>
-          <t>Fallback</t>
-        </is>
-      </c>
-      <c r="C77" s="10" t="inlineStr">
-        <is>
-          <t>Fallback Strength 1</t>
-        </is>
-      </c>
-      <c r="D77" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E77" s="10" t="inlineStr">
-        <is>
-          <t>Strength</t>
-        </is>
-      </c>
-      <c r="F77" s="10" t="inlineStr">
-        <is>
-          <t>Indirect</t>
-        </is>
-      </c>
-      <c r="G77" s="10" t="inlineStr">
+      <c r="G77" s="9" t="inlineStr">
         <is>
           <t>0..100 strength cap</t>
         </is>
@@ -7459,7 +7669,7 @@
       </c>
       <c r="C78" s="10" t="inlineStr">
         <is>
-          <t>Fallback Imbue 2</t>
+          <t>Fallback Enabled</t>
         </is>
       </c>
       <c r="D78" s="10" t="inlineStr">
@@ -7469,17 +7679,17 @@
       </c>
       <c r="E78" s="10" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Faction Profile</t>
         </is>
       </c>
       <c r="F78" s="10" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="G78" s="10" t="inlineStr">
         <is>
-          <t>None means no imbue slot</t>
+          <t>Eligibility toggle controlled by Faction Profile Preset</t>
         </is>
       </c>
     </row>
@@ -7496,7 +7706,7 @@
       </c>
       <c r="C79" s="10" t="inlineStr">
         <is>
-          <t>Fallback Chance 2</t>
+          <t>Fallback Imbue 1</t>
         </is>
       </c>
       <c r="D79" s="10" t="inlineStr">
@@ -7506,7 +7716,7 @@
       </c>
       <c r="E79" s="10" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="F79" s="10" t="inlineStr">
@@ -7516,7 +7726,7 @@
       </c>
       <c r="G79" s="10" t="inlineStr">
         <is>
-          <t>Per-faction totals normalize to &lt;=100%</t>
+          <t>None means no imbue slot</t>
         </is>
       </c>
     </row>
@@ -7533,7 +7743,7 @@
       </c>
       <c r="C80" s="10" t="inlineStr">
         <is>
-          <t>Fallback Strength 2</t>
+          <t>Fallback Chance 1</t>
         </is>
       </c>
       <c r="D80" s="10" t="inlineStr">
@@ -7543,7 +7753,7 @@
       </c>
       <c r="E80" s="10" t="inlineStr">
         <is>
-          <t>Strength</t>
+          <t>Chance</t>
         </is>
       </c>
       <c r="F80" s="10" t="inlineStr">
@@ -7553,7 +7763,7 @@
       </c>
       <c r="G80" s="10" t="inlineStr">
         <is>
-          <t>0..100 strength cap</t>
+          <t>Per-faction totals normalize to &lt;=100%</t>
         </is>
       </c>
     </row>
@@ -7570,7 +7780,7 @@
       </c>
       <c r="C81" s="10" t="inlineStr">
         <is>
-          <t>Fallback Imbue 3</t>
+          <t>Fallback Strength 1</t>
         </is>
       </c>
       <c r="D81" s="10" t="inlineStr">
@@ -7580,7 +7790,7 @@
       </c>
       <c r="E81" s="10" t="inlineStr">
         <is>
-          <t>Imbue</t>
+          <t>Strength</t>
         </is>
       </c>
       <c r="F81" s="10" t="inlineStr">
@@ -7590,7 +7800,7 @@
       </c>
       <c r="G81" s="10" t="inlineStr">
         <is>
-          <t>None means no imbue slot</t>
+          <t>0..100 strength cap</t>
         </is>
       </c>
     </row>
@@ -7607,7 +7817,7 @@
       </c>
       <c r="C82" s="10" t="inlineStr">
         <is>
-          <t>Fallback Chance 3</t>
+          <t>Fallback Imbue 2</t>
         </is>
       </c>
       <c r="D82" s="10" t="inlineStr">
@@ -7617,7 +7827,7 @@
       </c>
       <c r="E82" s="10" t="inlineStr">
         <is>
-          <t>Chance</t>
+          <t>Imbue</t>
         </is>
       </c>
       <c r="F82" s="10" t="inlineStr">
@@ -7627,7 +7837,7 @@
       </c>
       <c r="G82" s="10" t="inlineStr">
         <is>
-          <t>Per-faction totals normalize to &lt;=100%</t>
+          <t>None means no imbue slot</t>
         </is>
       </c>
     </row>
@@ -7644,32 +7854,180 @@
       </c>
       <c r="C83" s="10" t="inlineStr">
         <is>
+          <t>Fallback Chance 2</t>
+        </is>
+      </c>
+      <c r="D83" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E83" s="10" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="F83" s="10" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G83" s="10" t="inlineStr">
+        <is>
+          <t>Per-faction totals normalize to &lt;=100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="10" t="inlineStr">
+        <is>
+          <t>Fallback (Any Enemy)</t>
+        </is>
+      </c>
+      <c r="B84" s="10" t="inlineStr">
+        <is>
+          <t>Fallback</t>
+        </is>
+      </c>
+      <c r="C84" s="10" t="inlineStr">
+        <is>
+          <t>Fallback Strength 2</t>
+        </is>
+      </c>
+      <c r="D84" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E84" s="10" t="inlineStr">
+        <is>
+          <t>Strength</t>
+        </is>
+      </c>
+      <c r="F84" s="10" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G84" s="10" t="inlineStr">
+        <is>
+          <t>0..100 strength cap</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="10" t="inlineStr">
+        <is>
+          <t>Fallback (Any Enemy)</t>
+        </is>
+      </c>
+      <c r="B85" s="10" t="inlineStr">
+        <is>
+          <t>Fallback</t>
+        </is>
+      </c>
+      <c r="C85" s="10" t="inlineStr">
+        <is>
+          <t>Fallback Imbue 3</t>
+        </is>
+      </c>
+      <c r="D85" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E85" s="10" t="inlineStr">
+        <is>
+          <t>Imbue</t>
+        </is>
+      </c>
+      <c r="F85" s="10" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G85" s="10" t="inlineStr">
+        <is>
+          <t>None means no imbue slot</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="10" t="inlineStr">
+        <is>
+          <t>Fallback (Any Enemy)</t>
+        </is>
+      </c>
+      <c r="B86" s="10" t="inlineStr">
+        <is>
+          <t>Fallback</t>
+        </is>
+      </c>
+      <c r="C86" s="10" t="inlineStr">
+        <is>
+          <t>Fallback Chance 3</t>
+        </is>
+      </c>
+      <c r="D86" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E86" s="10" t="inlineStr">
+        <is>
+          <t>Chance</t>
+        </is>
+      </c>
+      <c r="F86" s="10" t="inlineStr">
+        <is>
+          <t>Indirect</t>
+        </is>
+      </c>
+      <c r="G86" s="10" t="inlineStr">
+        <is>
+          <t>Per-faction totals normalize to &lt;=100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="10" t="inlineStr">
+        <is>
+          <t>Fallback (Any Enemy)</t>
+        </is>
+      </c>
+      <c r="B87" s="10" t="inlineStr">
+        <is>
+          <t>Fallback</t>
+        </is>
+      </c>
+      <c r="C87" s="10" t="inlineStr">
+        <is>
           <t>Fallback Strength 3</t>
         </is>
       </c>
-      <c r="D83" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E83" s="10" t="inlineStr">
+      <c r="D87" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E87" s="10" t="inlineStr">
         <is>
           <t>Strength</t>
         </is>
       </c>
-      <c r="F83" s="10" t="inlineStr">
+      <c r="F87" s="10" t="inlineStr">
         <is>
           <t>Indirect</t>
         </is>
       </c>
-      <c r="G83" s="10" t="inlineStr">
+      <c r="G87" s="10" t="inlineStr">
         <is>
           <t>0..100 strength cap</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G83"/>
+  <autoFilter ref="A1:G87"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/_docs/EnemyImbuePresets_MenuMock.xlsx
+++ b/_docs/EnemyImbuePresets_MenuMock.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Preset Impact" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Menu Layout'!$A$1:$H$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Menu Layout'!$A$1:$H$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Preset Impact'!$A$1:$G$87</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -516,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4449,27 +4449,27 @@
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>Diagnostics</t>
+          <t>Advanced</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Log Level</t>
+          <t>Basic Logs</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Toggle</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>Off | Basic | Diagnostics | Verbose</t>
+          <t>On/Off</t>
         </is>
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>Basic</t>
+          <t>On</t>
         </is>
       </c>
       <c r="G94" s="2" t="inlineStr">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="H94" s="2" t="inlineStr">
         <is>
-          <t>Logging detail</t>
+          <t>General informational logging</t>
         </is>
       </c>
     </row>
@@ -4491,27 +4491,27 @@
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>Diagnostics</t>
+          <t>Advanced</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Imbue Update Interval</t>
+          <t>Diagnostics Logs</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Toggle</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>0.05s..1.00s</t>
+          <t>On/Off</t>
         </is>
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>0.25s</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="G95" s="2" t="inlineStr">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="H95" s="2" t="inlineStr">
         <is>
-          <t>Performance/response tradeoff</t>
+          <t>Deeper troubleshooting logs</t>
         </is>
       </c>
     </row>
@@ -4533,27 +4533,27 @@
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>Diagnostics</t>
+          <t>Advanced</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Enemy Rescan Interval</t>
+          <t>Verbose Logs</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>Dropdown</t>
+          <t>Toggle</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>0.50s..5.00s</t>
+          <t>On/Off</t>
         </is>
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>2.00s</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="G96" s="2" t="inlineStr">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>Tracking refresh interval</t>
+          <t>High-volume per-creature logs</t>
         </is>
       </c>
     </row>
@@ -4575,27 +4575,27 @@
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>Diagnostics</t>
+          <t>Advanced</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Dump Factions</t>
+          <t>Session Diagnostics</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>Button</t>
+          <t>Toggle</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
-          <t>False/True</t>
+          <t>On/Off</t>
         </is>
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Off</t>
         </is>
       </c>
       <c r="G97" s="2" t="inlineStr">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>One-shot debug action</t>
+          <t>Structured session summary logs</t>
         </is>
       </c>
     </row>
@@ -4617,27 +4617,27 @@
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>Diagnostics</t>
+          <t>Advanced</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Dump Wave-Faction Map</t>
+          <t>Imbue Update Interval</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>Button</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>False/True</t>
+          <t>0.05s..1.00s</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>0.25s</t>
         </is>
       </c>
       <c r="G98" s="2" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>One-shot debug action</t>
+          <t>Performance/response tradeoff</t>
         </is>
       </c>
     </row>
@@ -4659,27 +4659,27 @@
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>Diagnostics</t>
+          <t>Advanced</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Dump State</t>
+          <t>Enemy Rescan Interval</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>Button</t>
+          <t>Dropdown</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t>False/True</t>
+          <t>0.50s..5.00s</t>
         </is>
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>2.00s</t>
         </is>
       </c>
       <c r="G99" s="2" t="inlineStr">
@@ -4689,7 +4689,7 @@
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>One-shot debug action</t>
+          <t>Tracking refresh interval</t>
         </is>
       </c>
     </row>
@@ -4701,12 +4701,12 @@
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>Diagnostics</t>
+          <t>Advanced</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Dump Enemy Type Detection</t>
+          <t>Force Reapply</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
@@ -4731,54 +4731,12 @@
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>One-shot debug action</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="inlineStr">
-        <is>
-          <t>1006</t>
-        </is>
-      </c>
-      <c r="B101" s="2" t="inlineStr">
-        <is>
-          <t>Diagnostics</t>
-        </is>
-      </c>
-      <c r="C101" s="2" t="inlineStr">
-        <is>
-          <t>Force Reapply</t>
-        </is>
-      </c>
-      <c r="D101" s="2" t="inlineStr">
-        <is>
-          <t>Button</t>
-        </is>
-      </c>
-      <c r="E101" s="2" t="inlineStr">
-        <is>
-          <t>False/True</t>
-        </is>
-      </c>
-      <c r="F101" s="2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="G101" s="2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H101" s="2" t="inlineStr">
-        <is>
-          <t>One-shot debug action</t>
+          <t>One-shot reapply action</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H101"/>
+  <autoFilter ref="A1:H100"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
